--- a/solar/test.xlsx
+++ b/solar/test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE6B640-CC3D-43DE-9DA4-54455BE1FE9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CA333F-A9C8-4780-B19E-6A308C104C7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>//ψ = fi</t>
   </si>
@@ -208,6 +208,26 @@
     <t>sin_om</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -249,9 +269,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3039,6 +3062,865 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>四季中，每日太陽對地球方位角隨時間之變化</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>春</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$31:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$32:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-95.353099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-89.244600000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-82.034300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-71.622699999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51.168900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.168900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.622699999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.034300000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.244600000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.353099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05CB-4A22-8F6C-1EF677608614}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>夏</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$31:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$33:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-106.19199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-101.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-97.335700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-92.733000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-85.944199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.944199999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.733000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.335700000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.19199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05CB-4A22-8F6C-1EF677608614}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>秋</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$31:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-83.392799999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-76.131600000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-66.918300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-53.609699999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-32.217399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.217399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.609699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.918300000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.131600000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.392799999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-05CB-4A22-8F6C-1EF677608614}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>冬</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$31:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$35:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-62.691699999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-55.255600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-45.777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-33.502499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-17.9788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.9788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.502499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.255600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.691699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-05CB-4A22-8F6C-1EF677608614}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1448347855"/>
+        <c:axId val="1447561807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1448347855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>X:</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>小時</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447561807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1447561807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Y:</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1448347855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3199,6 +4081,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4748,6 +5670,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5415,6 +6853,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4BBD91-501C-4CE1-8932-AB8E095F8EBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5434,39 +6908,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="6">
-          <cell r="AF6">
-            <v>7</v>
-          </cell>
-          <cell r="AG6">
-            <v>8</v>
-          </cell>
-          <cell r="AH6">
-            <v>9</v>
-          </cell>
-          <cell r="AI6">
-            <v>10</v>
-          </cell>
-          <cell r="AJ6">
-            <v>11</v>
-          </cell>
-          <cell r="AK6">
-            <v>12</v>
-          </cell>
-          <cell r="AL6">
-            <v>13</v>
-          </cell>
-          <cell r="AM6">
-            <v>14</v>
-          </cell>
-          <cell r="AN6">
-            <v>15</v>
-          </cell>
-          <cell r="AO6">
-            <v>16</v>
-          </cell>
-          <cell r="AP6">
-            <v>17</v>
-          </cell>
           <cell r="AU6">
             <v>7</v>
           </cell>
@@ -5502,42 +6943,6 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="AE7" t="str">
-            <v>春</v>
-          </cell>
-          <cell r="AF7">
-            <v>5.9246494781806394E-2</v>
-          </cell>
-          <cell r="AG7">
-            <v>0.20022708295204111</v>
-          </cell>
-          <cell r="AH7">
-            <v>0.34895870315678224</v>
-          </cell>
-          <cell r="AI7">
-            <v>0.46328604863034323</v>
-          </cell>
-          <cell r="AJ7">
-            <v>0.52940089172821281</v>
-          </cell>
-          <cell r="AK7">
-            <v>0.55028686109228697</v>
-          </cell>
-          <cell r="AL7">
-            <v>0.52940089172821281</v>
-          </cell>
-          <cell r="AM7">
-            <v>0.46328604863034323</v>
-          </cell>
-          <cell r="AN7">
-            <v>0.34895870315678224</v>
-          </cell>
-          <cell r="AO7">
-            <v>0.20022708295204111</v>
-          </cell>
-          <cell r="AP7">
-            <v>5.9246494781806394E-2</v>
-          </cell>
           <cell r="AT7" t="str">
             <v>春</v>
           </cell>
@@ -5576,42 +6981,6 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="AE8" t="str">
-            <v>夏</v>
-          </cell>
-          <cell r="AF8">
-            <v>3.5496846482523103E-2</v>
-          </cell>
-          <cell r="AG8">
-            <v>0.15833102172111729</v>
-          </cell>
-          <cell r="AH8">
-            <v>0.28820248427784767</v>
-          </cell>
-          <cell r="AI8">
-            <v>0.38970254526753906</v>
-          </cell>
-          <cell r="AJ8">
-            <v>0.44974619409840766</v>
-          </cell>
-          <cell r="AK8">
-            <v>0.46905315176152651</v>
-          </cell>
-          <cell r="AL8">
-            <v>0.44974619409840766</v>
-          </cell>
-          <cell r="AM8">
-            <v>0.38970254526753906</v>
-          </cell>
-          <cell r="AN8">
-            <v>0.28820248427784767</v>
-          </cell>
-          <cell r="AO8">
-            <v>0.15833102172111729</v>
-          </cell>
-          <cell r="AP8">
-            <v>3.5496846482523103E-2</v>
-          </cell>
           <cell r="AT8" t="str">
             <v>夏</v>
           </cell>
@@ -5650,42 +7019,6 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="AE9" t="str">
-            <v>秋</v>
-          </cell>
-          <cell r="AF9">
-            <v>7.5305920193280682E-2</v>
-          </cell>
-          <cell r="AG9">
-            <v>0.23936900666681496</v>
-          </cell>
-          <cell r="AH9">
-            <v>0.41132619538359161</v>
-          </cell>
-          <cell r="AI9">
-            <v>0.54056605628184573</v>
-          </cell>
-          <cell r="AJ9">
-            <v>0.61304250102162094</v>
-          </cell>
-          <cell r="AK9">
-            <v>0.63537549937330462</v>
-          </cell>
-          <cell r="AL9">
-            <v>0.61304250102162094</v>
-          </cell>
-          <cell r="AM9">
-            <v>0.54056605628184573</v>
-          </cell>
-          <cell r="AN9">
-            <v>0.41132619538359161</v>
-          </cell>
-          <cell r="AO9">
-            <v>0.23936900666681496</v>
-          </cell>
-          <cell r="AP9">
-            <v>7.5305920193280682E-2</v>
-          </cell>
           <cell r="AT9" t="str">
             <v>秋</v>
           </cell>
@@ -5724,42 +7057,6 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="AE10" t="str">
-            <v>冬</v>
-          </cell>
-          <cell r="AF10">
-            <v>4.0915072739834149E-2</v>
-          </cell>
-          <cell r="AG10">
-            <v>0.26245905013888465</v>
-          </cell>
-          <cell r="AH10">
-            <v>0.48800252732889249</v>
-          </cell>
-          <cell r="AI10">
-            <v>0.6476309340196521</v>
-          </cell>
-          <cell r="AJ10">
-            <v>0.72987819105313667</v>
-          </cell>
-          <cell r="AK10">
-            <v>0.75338974419172944</v>
-          </cell>
-          <cell r="AL10">
-            <v>0.72987819105313667</v>
-          </cell>
-          <cell r="AM10">
-            <v>0.6476309340196521</v>
-          </cell>
-          <cell r="AN10">
-            <v>0.48800252732889249</v>
-          </cell>
-          <cell r="AO10">
-            <v>0.26245905013888465</v>
-          </cell>
-          <cell r="AP10">
-            <v>4.0915072739834149E-2</v>
-          </cell>
           <cell r="AT10" t="str">
             <v>冬</v>
           </cell>
@@ -5798,39 +7095,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="AF12">
-            <v>7</v>
-          </cell>
-          <cell r="AG12">
-            <v>8</v>
-          </cell>
-          <cell r="AH12">
-            <v>9</v>
-          </cell>
-          <cell r="AI12">
-            <v>10</v>
-          </cell>
-          <cell r="AJ12">
-            <v>11</v>
-          </cell>
-          <cell r="AK12">
-            <v>12</v>
-          </cell>
-          <cell r="AL12">
-            <v>13</v>
-          </cell>
-          <cell r="AM12">
-            <v>14</v>
-          </cell>
-          <cell r="AN12">
-            <v>15</v>
-          </cell>
-          <cell r="AO12">
-            <v>16</v>
-          </cell>
-          <cell r="AP12">
-            <v>17</v>
-          </cell>
           <cell r="AU12">
             <v>7</v>
           </cell>
@@ -5899,42 +7163,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="AE13" t="str">
-            <v>春</v>
-          </cell>
-          <cell r="AF13">
-            <v>0.12632205931396581</v>
-          </cell>
-          <cell r="AG13">
-            <v>0.22186268085080002</v>
-          </cell>
-          <cell r="AH13">
-            <v>0.30181389911648082</v>
-          </cell>
-          <cell r="AI13">
-            <v>0.36262622981833892</v>
-          </cell>
-          <cell r="AJ13">
-            <v>0.40137777539319136</v>
-          </cell>
-          <cell r="AK13">
-            <v>0.41476983081726221</v>
-          </cell>
-          <cell r="AL13">
-            <v>0.40137777539319136</v>
-          </cell>
-          <cell r="AM13">
-            <v>0.36262622981833892</v>
-          </cell>
-          <cell r="AN13">
-            <v>0.30181389911648082</v>
-          </cell>
-          <cell r="AO13">
-            <v>0.22186268085080002</v>
-          </cell>
-          <cell r="AP13">
-            <v>0.12632205931396581</v>
-          </cell>
           <cell r="AT13" t="str">
             <v>春</v>
           </cell>
@@ -6009,42 +7237,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="AE14" t="str">
-            <v>夏</v>
-          </cell>
-          <cell r="AF14">
-            <v>0.1421141632687957</v>
-          </cell>
-          <cell r="AG14">
-            <v>0.23048358384242862</v>
-          </cell>
-          <cell r="AH14">
-            <v>0.30568262343660008</v>
-          </cell>
-          <cell r="AI14">
-            <v>0.36352100284500127</v>
-          </cell>
-          <cell r="AJ14">
-            <v>0.40046468006158253</v>
-          </cell>
-          <cell r="AK14">
-            <v>0.41322533219015622</v>
-          </cell>
-          <cell r="AL14">
-            <v>0.40046468006158253</v>
-          </cell>
-          <cell r="AM14">
-            <v>0.36352100284500127</v>
-          </cell>
-          <cell r="AN14">
-            <v>0.30568262343660008</v>
-          </cell>
-          <cell r="AO14">
-            <v>0.23048358384242862</v>
-          </cell>
-          <cell r="AP14">
-            <v>0.1421141632687957</v>
-          </cell>
           <cell r="AT14" t="str">
             <v>夏</v>
           </cell>
@@ -6119,42 +7311,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="AE15" t="str">
-            <v>秋</v>
-          </cell>
-          <cell r="AF15">
-            <v>0.10090415522138758</v>
-          </cell>
-          <cell r="AG15">
-            <v>0.20303663230060934</v>
-          </cell>
-          <cell r="AH15">
-            <v>0.28598094934714269</v>
-          </cell>
-          <cell r="AI15">
-            <v>0.3478138528044919</v>
-          </cell>
-          <cell r="AJ15">
-            <v>0.38708885327432324</v>
-          </cell>
-          <cell r="AK15">
-            <v>0.40068721847255434</v>
-          </cell>
-          <cell r="AL15">
-            <v>0.38708885327432324</v>
-          </cell>
-          <cell r="AM15">
-            <v>0.3478138528044919</v>
-          </cell>
-          <cell r="AN15">
-            <v>0.28598094934714269</v>
-          </cell>
-          <cell r="AO15">
-            <v>0.20303663230060934</v>
-          </cell>
-          <cell r="AP15">
-            <v>0.10090415522138758</v>
-          </cell>
           <cell r="AT15" t="str">
             <v>秋</v>
           </cell>
@@ -6229,42 +7385,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="AE16" t="str">
-            <v>冬</v>
-          </cell>
-          <cell r="AF16">
-            <v>2.8347441209763246E-2</v>
-          </cell>
-          <cell r="AG16">
-            <v>0.13985723704829969</v>
-          </cell>
-          <cell r="AH16">
-            <v>0.21975673453894842</v>
-          </cell>
-          <cell r="AI16">
-            <v>0.27388710293564539</v>
-          </cell>
-          <cell r="AJ16">
-            <v>0.30786795508913428</v>
-          </cell>
-          <cell r="AK16">
-            <v>0.3197904474190108</v>
-          </cell>
-          <cell r="AL16">
-            <v>0.30786795508913428</v>
-          </cell>
-          <cell r="AM16">
-            <v>0.27388710293564539</v>
-          </cell>
-          <cell r="AN16">
-            <v>0.21975673453894842</v>
-          </cell>
-          <cell r="AO16">
-            <v>0.13985723704829969</v>
-          </cell>
-          <cell r="AP16">
-            <v>2.8347441209763246E-2</v>
-          </cell>
           <cell r="AT16" t="str">
             <v>冬</v>
           </cell>
@@ -6336,193 +7456,6 @@
           </cell>
           <cell r="BT16">
             <v>62.691670698765336</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="AF36">
-            <v>7</v>
-          </cell>
-          <cell r="AG36">
-            <v>8</v>
-          </cell>
-          <cell r="AH36">
-            <v>9</v>
-          </cell>
-          <cell r="AI36">
-            <v>10</v>
-          </cell>
-          <cell r="AJ36">
-            <v>11</v>
-          </cell>
-          <cell r="AK36">
-            <v>12</v>
-          </cell>
-          <cell r="AL36">
-            <v>13</v>
-          </cell>
-          <cell r="AM36">
-            <v>14</v>
-          </cell>
-          <cell r="AN36">
-            <v>15</v>
-          </cell>
-          <cell r="AO36">
-            <v>16</v>
-          </cell>
-          <cell r="AP36">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="AE37" t="str">
-            <v>春</v>
-          </cell>
-          <cell r="AF37">
-            <v>0.20326717654210263</v>
-          </cell>
-          <cell r="AG37">
-            <v>0.45673113921706693</v>
-          </cell>
-          <cell r="AH37">
-            <v>0.70110344178242878</v>
-          </cell>
-          <cell r="AI37">
-            <v>0.8879904976258276</v>
-          </cell>
-          <cell r="AJ37">
-            <v>0.99976884925535137</v>
-          </cell>
-          <cell r="AK37">
-            <v>1.0362828639901189</v>
-          </cell>
-          <cell r="AL37">
-            <v>0.99976884925535137</v>
-          </cell>
-          <cell r="AM37">
-            <v>0.8879904976258276</v>
-          </cell>
-          <cell r="AN37">
-            <v>0.70110344178242878</v>
-          </cell>
-          <cell r="AO37">
-            <v>0.45673113921706693</v>
-          </cell>
-          <cell r="AP37">
-            <v>0.20326717654210263</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="AE38" t="str">
-            <v>夏</v>
-          </cell>
-          <cell r="AF38">
-            <v>0.19970383765432342</v>
-          </cell>
-          <cell r="AG38">
-            <v>0.4271900261921377</v>
-          </cell>
-          <cell r="AH38">
-            <v>0.64693426453837211</v>
-          </cell>
-          <cell r="AI38">
-            <v>0.81717662615383713</v>
-          </cell>
-          <cell r="AJ38">
-            <v>0.92059128147352487</v>
-          </cell>
-          <cell r="AK38">
-            <v>0.9547458503854136</v>
-          </cell>
-          <cell r="AL38">
-            <v>0.92059128147352487</v>
-          </cell>
-          <cell r="AM38">
-            <v>0.81717662615383713</v>
-          </cell>
-          <cell r="AN38">
-            <v>0.64693426453837211</v>
-          </cell>
-          <cell r="AO38">
-            <v>0.4271900261921377</v>
-          </cell>
-          <cell r="AP38">
-            <v>0.19970383765432342</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="AE39" t="str">
-            <v>秋</v>
-          </cell>
-          <cell r="AF39">
-            <v>0.18835990196044827</v>
-          </cell>
-          <cell r="AG39">
-            <v>0.47143755568052398</v>
-          </cell>
-          <cell r="AH39">
-            <v>0.74266843987673981</v>
-          </cell>
-          <cell r="AI39">
-            <v>0.9461171139876895</v>
-          </cell>
-          <cell r="AJ39">
-            <v>1.0651357782276596</v>
-          </cell>
-          <cell r="AK39">
-            <v>1.1034060591366961</v>
-          </cell>
-          <cell r="AL39">
-            <v>1.0651357782276596</v>
-          </cell>
-          <cell r="AM39">
-            <v>0.9461171139876895</v>
-          </cell>
-          <cell r="AN39">
-            <v>0.74266843987673981</v>
-          </cell>
-          <cell r="AO39">
-            <v>0.47143755568052398</v>
-          </cell>
-          <cell r="AP39">
-            <v>0.18835990196044827</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="AE40" t="str">
-            <v>冬</v>
-          </cell>
-          <cell r="AF40">
-            <v>7.1221923873710319E-2</v>
-          </cell>
-          <cell r="AG40">
-            <v>0.41765681134414329</v>
-          </cell>
-          <cell r="AH40">
-            <v>0.73862043993059445</v>
-          </cell>
-          <cell r="AI40">
-            <v>0.96472592475503216</v>
-          </cell>
-          <cell r="AJ40">
-            <v>1.088197837667608</v>
-          </cell>
-          <cell r="AK40">
-            <v>1.1259321846652028</v>
-          </cell>
-          <cell r="AL40">
-            <v>1.088197837667608</v>
-          </cell>
-          <cell r="AM40">
-            <v>0.96472592475503216</v>
-          </cell>
-          <cell r="AN40">
-            <v>0.73862043993059445</v>
-          </cell>
-          <cell r="AO40">
-            <v>0.41765681134414329</v>
-          </cell>
-          <cell r="AP40">
-            <v>7.1221923873710319E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -6799,8 +7732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6926,11 +7859,11 @@
         <v>45</v>
       </c>
       <c r="I2">
-        <f>((G2) * PI())/180</f>
+        <f t="shared" ref="I2:I24" si="1">((G2) * PI())/180</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>((H2) * PI())/180</f>
+        <f t="shared" ref="J2:J24" si="2">((H2) * PI())/180</f>
         <v>0.78539816339744828</v>
       </c>
       <c r="K2">
@@ -6942,11 +7875,11 @@
         <v>2.1118483949131388</v>
       </c>
       <c r="M2">
-        <f>(2 * PI() * (D2 - 1))/365</f>
+        <f t="shared" ref="M2:M24" si="3">(2 * PI() * (D2 - 1))/365</f>
         <v>1.9279911079564758</v>
       </c>
       <c r="N2">
-        <f>0.006918 - 0.399912 * COS(M2) + 0.070257 * SIN(M2) - 0.006758 * COS(2 * M2) + 0.000908 * SIN(2 * M2)</f>
+        <f t="shared" ref="N2:N24" si="4">0.006918 - 0.399912 * COS(M2) + 0.070257 * SIN(M2) - 0.006758 * COS(2 * M2) + 0.000908 * SIN(2 * M2)</f>
         <v>0.2170794277152647</v>
       </c>
       <c r="P2">
@@ -6954,54 +7887,54 @@
         <v>-0.13804162068094611</v>
       </c>
       <c r="Q2">
-        <f>(COS(N2) * SIN(F2))/COS(N51)</f>
+        <f t="shared" ref="Q2:Q24" si="5">(COS(N2) * SIN(F2))/COS(N51)</f>
         <v>-0.25518778664097935</v>
       </c>
       <c r="R2">
-        <f>COS(N2 -K2)</f>
+        <f t="shared" ref="R2:R24" si="6">COS(N2 -K2)</f>
         <v>0.97606021951505584</v>
       </c>
       <c r="S2">
-        <f>(0.42 * P2) + (((2.92 - R2) / (2 * R2)) * P2^2) - ((((2.92 -R2) / (4 *R2^2))) * P2^3)</f>
+        <f t="shared" ref="S2:S24" si="7">(0.42 * P2) + (((2.92 - R2) / (2 * R2)) * P2^2) - ((((2.92 -R2) / (4 *R2^2))) * P2^3)</f>
         <v>-3.7660009655864815E-2</v>
       </c>
       <c r="T2">
-        <f>((1.323 * S2) / (P2)) - 0.5466</f>
+        <f t="shared" ref="T2:T24" si="8">((1.323 * S2) / (P2)) - 0.5466</f>
         <v>-0.18566398281234908</v>
       </c>
       <c r="U2">
-        <f>(SIN(K2) * COS(J2) - COS(K2) * SIN(J2) * COS(I2)) * SIN(N2) + (COS(K2) * COS(J2) + SIN(K2) * SIN(J2) * COS(I2)) * COS(N2) * COS(F2) + SIN(J2) * SIN(I2) * COS(N2) *SIN(F2)</f>
+        <f t="shared" ref="U2:U24" si="9">(SIN(K2) * COS(J2) - COS(K2) * SIN(J2) * COS(I2)) * SIN(N2) + (COS(K2) * COS(J2) + SIN(K2) * SIN(J2) * COS(I2)) * COS(N2) * COS(F2) + SIN(J2) * SIN(I2) * COS(N2) *SIN(F2)</f>
         <v>-0.96003465103808261</v>
       </c>
       <c r="V2">
-        <f>C2 * (1 + 0.033 * COS((D2 - 2) * ((2 * PI()) / (365)))) * P2</f>
+        <f t="shared" ref="V2:V24" si="10">C2 * (1 + 0.033 * COS((D2 - 2) * ((2 * PI()) / (365)))) * P2</f>
         <v>-0.18867415836225404</v>
       </c>
       <c r="W2">
-        <f>S2 - (T2 * P2)</f>
+        <f t="shared" ref="W2:W24" si="11">S2 - (T2 * P2)</f>
         <v>-6.3289366745360801E-2</v>
       </c>
       <c r="X2">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y2">
-        <f>T2 * U2</f>
+        <f t="shared" ref="Y2:Y24" si="12">T2 * U2</f>
         <v>0.17824385694959413</v>
       </c>
       <c r="Z2">
-        <f>W2 * (((S2-W2) / (V2)) * ((U2) / (P2)) + (1 + ((S2-W2) / (V2))) * ((1 + COS(J2)) / (2)))</f>
+        <f t="shared" ref="Z2:Z24" si="13">W2 * (((S2-W2) / (V2)) * ((U2) / (P2)) + (1 + ((S2-W2) / (V2))) * ((1 + COS(J2)) / (2)))</f>
         <v>1.3107897332097131E-2</v>
       </c>
       <c r="AA2">
-        <f>(X2 * S2) * ((1 - COS(J2)) / (2))</f>
+        <f t="shared" ref="AA2:AA24" si="14">(X2 * S2) * ((1 - COS(J2)) / (2))</f>
         <v>-3.0333493983792851E-3</v>
       </c>
       <c r="AB2">
-        <f xml:space="preserve"> Y2 + Z2 + AA2</f>
+        <f t="shared" ref="AB2:AB24" si="15" xml:space="preserve"> Y2 + Z2 + AA2</f>
         <v>0.18831840488331197</v>
       </c>
       <c r="AC2">
-        <f>(SIN(N2)*COS(K2)-COS(F2)*COS(N2)*SIN(K2))/SIN(ACOS(P2))</f>
+        <f t="shared" ref="AC2:AC24" si="16">(SIN(N2)*COS(K2)-COS(F2)*COS(N2)*SIN(K2))/SIN(ACOS(P2))</f>
         <v>0.59957659835921662</v>
       </c>
       <c r="AD2">
@@ -7049,102 +7982,102 @@
         <v>45</v>
       </c>
       <c r="I3">
-        <f>((G3) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>((H3) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K45" si="1">((25) *PI())/180</f>
+        <f t="shared" ref="K3:K24" si="17">((25) *PI())/180</f>
         <v>0.43633231299858238</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L45" si="2">((121) * PI())/180</f>
+        <f t="shared" ref="L3:L24" si="18">((121) * PI())/180</f>
         <v>2.1118483949131388</v>
       </c>
       <c r="M3">
-        <f>(2 * PI() * (D3 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N3">
-        <f>0.006918 - 0.399912 * COS(M3) + 0.070257 * SIN(M3) - 0.006758 * COS(2 * M3) + 0.000908 * SIN(2 * M3)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P3">
-        <f>(COS(K3) * COS(N3) * COS(F3)) + (SIN(N3) * SIN(K3))</f>
+        <f t="shared" ref="P3:P24" si="19">(COS(K3) * COS(N3) * COS(F3)) + (SIN(N3) * SIN(K3))</f>
         <v>-0.67544191202396686</v>
       </c>
       <c r="Q3">
-        <f>(COS(N3) * SIN(F3))/COS(N52)</f>
+        <f t="shared" si="5"/>
         <v>-0.66213260447364641</v>
       </c>
       <c r="R3">
-        <f>COS(N3 -K3)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S3">
-        <f>(0.42 * P3) + (((2.92 - R3) / (2 * R3)) * P3^2) - ((((2.92 -R3) / (4 *R3^2))) * P3^3)</f>
+        <f t="shared" si="7"/>
         <v>0.32781745290531794</v>
       </c>
       <c r="T3">
-        <f>((1.323 * S3) / (P3)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>-1.1887018335894242</v>
       </c>
       <c r="U3">
-        <f>(SIN(K3) * COS(J3) - COS(K3) * SIN(J3) * COS(I3)) * SIN(N3) + (COS(K3) * COS(J3) + SIN(K3) * SIN(J3) * COS(I3)) * COS(N3) * COS(F3) + SIN(J3) * SIN(I3) * COS(N3) *SIN(F3)</f>
+        <f t="shared" si="9"/>
         <v>-0.8683621633939268</v>
       </c>
       <c r="V3">
-        <f>C3 * (1 + 0.033 * COS((D3 - 2) * ((2 * PI()) / (365)))) * P3</f>
+        <f t="shared" si="10"/>
         <v>-0.92318848217712879</v>
       </c>
       <c r="W3">
-        <f>S3 - (T3 * P3)</f>
+        <f t="shared" si="11"/>
         <v>-0.47508158640071796</v>
       </c>
       <c r="X3">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y3">
-        <f>T3 * U3</f>
+        <f t="shared" si="12"/>
         <v>1.03222369584604</v>
       </c>
       <c r="Z3">
-        <f>W3 * (((S3-W3) / (V3)) * ((U3) / (P3)) + (1 + ((S3-W3) / (V3))) * ((1 + COS(J3)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.47835540450102892</v>
       </c>
       <c r="AA3">
-        <f>(X3 * S3) * ((1 - COS(J3)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>2.6404264965283131E-2</v>
       </c>
       <c r="AB3">
-        <f xml:space="preserve"> Y3 + Z3 + AA3</f>
+        <f t="shared" si="15"/>
         <v>1.5369833653123521</v>
       </c>
       <c r="AC3">
-        <f>(SIN(N3)*COS(K3)-COS(F3)*COS(N3)*SIN(K3))/SIN(ACOS(P3))</f>
+        <f t="shared" si="16"/>
         <v>0.74938669196413243</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD24" si="3">ACOS(AC3)</f>
+        <f t="shared" ref="AD3:AD24" si="20">ACOS(AC3)</f>
         <v>0.72366099561169361</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE24" si="4">AD3*180/PI()</f>
+        <f t="shared" ref="AE3:AE24" si="21">AD3*180/PI()</f>
         <v>41.462720846785231</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF24" si="5">(P3-SIN(N3)*SIN(K3))/(COS(K3)*COS(N3))</f>
+        <f t="shared" ref="AF3:AF24" si="22">(P3-SIN(N3)*SIN(K3))/(COS(K3)*COS(N3))</f>
         <v>-0.86602540378443871</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG24" si="6">ASIN(AF3)</f>
+        <f t="shared" ref="AG3:AG24" si="23">ASIN(AF3)</f>
         <v>-1.0471975511965981</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH24" si="7">AG3*180/PI()</f>
+        <f t="shared" ref="AH3:AH24" si="24">AG3*180/PI()</f>
         <v>-60.000000000000021</v>
       </c>
     </row>
@@ -7172,102 +8105,102 @@
         <v>45</v>
       </c>
       <c r="I4">
-        <f>((G4) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>((H4) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M4">
-        <f>(2 * PI() * (D4 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N4">
-        <f>0.006918 - 0.399912 * COS(M4) + 0.070257 * SIN(M4) - 0.006758 * COS(2 * M4) + 0.000908 * SIN(2 * M4)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P4">
-        <f>(COS(K4) * COS(N4) * COS(F4)) + (SIN(N4) * SIN(K4))</f>
+        <f t="shared" si="19"/>
         <v>-0.53479299940499303</v>
       </c>
       <c r="Q4">
-        <f>(COS(N4) * SIN(F4))/COS(N53)</f>
+        <f t="shared" si="5"/>
         <v>-0.81718963929492106</v>
       </c>
       <c r="R4">
-        <f>COS(N4 -K4)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S4">
-        <f>(0.42 * P4) + (((2.92 - R4) / (2 * R4)) * P4^2) - ((((2.92 -R4) / (4 *R4^2))) * P4^3)</f>
+        <f t="shared" si="7"/>
         <v>0.13821568496117229</v>
       </c>
       <c r="T4">
-        <f>((1.323 * S4) / (P4)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>-0.88852547659950476</v>
       </c>
       <c r="U4">
-        <f>(SIN(K4) * COS(J4) - COS(K4) * SIN(J4) * COS(I4)) * SIN(N4) + (COS(K4) * COS(J4) + SIN(K4) * SIN(J4) * COS(I4)) * COS(N4) * COS(F4) + SIN(J4) * SIN(I4) * COS(N4) *SIN(F4)</f>
+        <f t="shared" si="9"/>
         <v>-0.72253229499816174</v>
       </c>
       <c r="V4">
-        <f>C4 * (1 + 0.033 * COS((D4 - 2) * ((2 * PI()) / (365)))) * P4</f>
+        <f t="shared" si="10"/>
         <v>-0.73095069851414707</v>
       </c>
       <c r="W4">
-        <f>S4 - (T4 * P4)</f>
+        <f t="shared" si="11"/>
         <v>-0.33696151971722776</v>
       </c>
       <c r="X4">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y4">
-        <f>T4 * U4</f>
+        <f t="shared" si="12"/>
         <v>0.6419883517717756</v>
       </c>
       <c r="Z4">
-        <f>W4 * (((S4-W4) / (V4)) * ((U4) / (P4)) + (1 + ((S4-W4) / (V4))) * ((1 + COS(J4)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.19530888695386564</v>
       </c>
       <c r="AA4">
-        <f>(X4 * S4) * ((1 - COS(J4)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>1.1132670136165557E-2</v>
       </c>
       <c r="AB4">
-        <f xml:space="preserve"> Y4 + Z4 + AA4</f>
+        <f t="shared" si="15"/>
         <v>0.8484299088618068</v>
       </c>
       <c r="AC4">
-        <f>(SIN(N4)*COS(K4)-COS(F4)*COS(N4)*SIN(K4))/SIN(ACOS(P4))</f>
+        <f t="shared" si="16"/>
         <v>0.57636888659003482</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>0.95651805138555457</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>54.80444737246988</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>-0.70710678118654746</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>-0.78539816339744828</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>-45</v>
       </c>
     </row>
@@ -7295,102 +8228,102 @@
         <v>45</v>
       </c>
       <c r="I5">
-        <f>((G5) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>((H5) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M5">
-        <f>(2 * PI() * (D5 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N5">
-        <f>0.006918 - 0.399912 * COS(M5) + 0.070257 * SIN(M5) - 0.006758 * COS(2 * M5) + 0.000908 * SIN(2 * M5)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P5">
-        <f>(COS(K5) * COS(N5) * COS(F5)) + (SIN(N5) * SIN(K5))</f>
+        <f t="shared" si="19"/>
         <v>-0.3514957678174207</v>
       </c>
       <c r="Q5">
-        <f>(COS(N5) * SIN(F5))/COS(N54)</f>
+        <f t="shared" si="5"/>
         <v>-0.90334314763464241</v>
       </c>
       <c r="R5">
-        <f>COS(N5 -K5)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S5">
-        <f>(0.42 * P5) + (((2.92 - R5) / (2 * R5)) * P5^2) - ((((2.92 -R5) / (4 *R5^2))) * P5^3)</f>
+        <f t="shared" si="7"/>
         <v>-2.4438352937091214E-3</v>
       </c>
       <c r="T5">
-        <f>((1.323 * S5) / (P5)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>-0.53740161302181988</v>
       </c>
       <c r="U5">
-        <f>(SIN(K5) * COS(J5) - COS(K5) * SIN(J5) * COS(I5)) * SIN(N5) + (COS(K5) * COS(J5) + SIN(K5) * SIN(J5) * COS(I5)) * COS(N5) * COS(F5) + SIN(J5) * SIN(I5) * COS(N5) *SIN(F5)</f>
+        <f t="shared" si="9"/>
         <v>-0.5324831103867067</v>
       </c>
       <c r="V5">
-        <f>C5 * (1 + 0.033 * COS((D5 - 2) * ((2 * PI()) / (365)))) * P5</f>
+        <f t="shared" si="10"/>
         <v>-0.48042154122579067</v>
       </c>
       <c r="W5">
-        <f>S5 - (T5 * P5)</f>
+        <f t="shared" si="11"/>
         <v>-0.1913382278891341</v>
       </c>
       <c r="X5">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y5">
-        <f>T5 * U5</f>
+        <f t="shared" si="12"/>
         <v>0.28615728242869193</v>
       </c>
       <c r="Z5">
-        <f>W5 * (((S5-W5) / (V5)) * ((U5) / (P5)) + (1 + ((S5-W5) / (V5))) * ((1 + COS(J5)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>1.4864806744830204E-2</v>
       </c>
       <c r="AA5">
-        <f>(X5 * S5) * ((1 - COS(J5)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>-1.9684026599170549E-4</v>
       </c>
       <c r="AB5">
-        <f xml:space="preserve"> Y5 + Z5 + AA5</f>
+        <f t="shared" si="15"/>
         <v>0.30082524890753043</v>
       </c>
       <c r="AC5">
-        <f>(SIN(N5)*COS(K5)-COS(F5)*COS(N5)*SIN(K5))/SIN(ACOS(P5))</f>
+        <f t="shared" si="16"/>
         <v>0.4289185909022088</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.1275010094006599</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>64.601049235397966</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>-0.49999999999999972</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>-0.52359877559829848</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>-29.999999999999979</v>
       </c>
     </row>
@@ -7418,102 +8351,102 @@
         <v>45</v>
       </c>
       <c r="I6">
-        <f>((G6) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>((H6) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M6">
-        <f>(2 * PI() * (D6 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N6">
-        <f>0.006918 - 0.399912 * COS(M6) + 0.070257 * SIN(M6) - 0.006758 * COS(2 * M6) + 0.000908 * SIN(2 * M6)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P6">
-        <f>(COS(K6) * COS(N6) * COS(F6)) + (SIN(N6) * SIN(K6))</f>
+        <f t="shared" si="19"/>
         <v>-0.13804162068094594</v>
       </c>
       <c r="Q6">
-        <f>(COS(N6) * SIN(F6))/COS(N55)</f>
+        <f t="shared" si="5"/>
         <v>-0.95237378521518046</v>
       </c>
       <c r="R6">
-        <f>COS(N6 -K6)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S6">
-        <f>(0.42 * P6) + (((2.92 - R6) / (2 * R6)) * P6^2) - ((((2.92 -R6) / (4 *R6^2))) * P6^3)</f>
+        <f t="shared" si="7"/>
         <v>-3.7660009655864794E-2</v>
       </c>
       <c r="T6">
-        <f>((1.323 * S6) / (P6)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>-0.18566398281234886</v>
       </c>
       <c r="U6">
-        <f>(SIN(K6) * COS(J6) - COS(K6) * SIN(J6) * COS(I6)) * SIN(N6) + (COS(K6) * COS(J6) + SIN(K6) * SIN(J6) * COS(I6)) * COS(N6) * COS(F6) + SIN(J6) * SIN(I6) * COS(N6) *SIN(F6)</f>
+        <f t="shared" si="9"/>
         <v>-0.31116614741970572</v>
       </c>
       <c r="V6">
-        <f>C6 * (1 + 0.033 * COS((D6 - 2) * ((2 * PI()) / (365)))) * P6</f>
+        <f t="shared" si="10"/>
         <v>-0.18867415836225382</v>
       </c>
       <c r="W6">
-        <f>S6 - (T6 * P6)</f>
+        <f t="shared" si="11"/>
         <v>-6.3289366745360731E-2</v>
       </c>
       <c r="X6">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y6">
-        <f>T6 * U6</f>
+        <f t="shared" si="12"/>
         <v>5.7772346246317052E-2</v>
       </c>
       <c r="Z6">
-        <f>W6 * (((S6-W6) / (V6)) * ((U6) / (P6)) + (1 + ((S6-W6) / (V6))) * ((1 + COS(J6)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>-2.7303389987007789E-2</v>
       </c>
       <c r="AA6">
-        <f>(X6 * S6) * ((1 - COS(J6)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>-3.0333493983792834E-3</v>
       </c>
       <c r="AB6">
-        <f xml:space="preserve"> Y6 + Z6 + AA6</f>
+        <f t="shared" si="15"/>
         <v>2.7435606860929981E-2</v>
       </c>
       <c r="AC6">
-        <f>(SIN(N6)*COS(K6)-COS(F6)*COS(N6)*SIN(K6))/SIN(ACOS(P6))</f>
+        <f t="shared" si="16"/>
         <v>0.30493306353183408</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.2609281821280438</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>72.245863105040101</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>-0.25881904510252085</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>-0.26179938779914952</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>-15.000000000000005</v>
       </c>
     </row>
@@ -7541,102 +8474,102 @@
         <v>45</v>
       </c>
       <c r="I7">
-        <f>((G7) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>((H7) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M7">
-        <f>(2 * PI() * (D7 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N7">
-        <f>0.006918 - 0.399912 * COS(M7) + 0.070257 * SIN(M7) - 0.006758 * COS(2 * M7) + 0.000908 * SIN(2 * M7)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P7">
-        <f>(COS(K7) * COS(N7) * COS(F7)) + (SIN(N7) * SIN(K7))</f>
+        <f t="shared" si="19"/>
         <v>9.1022894626738016E-2</v>
       </c>
       <c r="Q7">
-        <f>(COS(N7) * SIN(F7))/COS(N56)</f>
+        <f t="shared" si="5"/>
         <v>-0.98060131381863425</v>
       </c>
       <c r="R7">
-        <f>COS(N7 -K7)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S7">
-        <f>(0.42 * P7) + (((2.92 - R7) / (2 * R7)) * P7^2) - ((((2.92 -R7) / (4 *R7^2))) * P7^3)</f>
+        <f t="shared" si="7"/>
         <v>4.6095363424246028E-2</v>
       </c>
       <c r="T7">
-        <f>((1.323 * S7) / (P7)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.12338710665441055</v>
       </c>
       <c r="U7">
-        <f>(SIN(K7) * COS(J7) - COS(K7) * SIN(J7) * COS(I7)) * SIN(N7) + (COS(K7) * COS(J7) + SIN(K7) * SIN(J7) * COS(I7)) * COS(N7) * COS(F7) + SIN(J7) * SIN(I7) * COS(N7) *SIN(F7)</f>
+        <f t="shared" si="9"/>
         <v>-7.3663791379784682E-2</v>
       </c>
       <c r="V7">
-        <f>C7 * (1 + 0.033 * COS((D7 - 2) * ((2 * PI()) / (365)))) * P7</f>
+        <f t="shared" si="10"/>
         <v>0.12440934806966095</v>
       </c>
       <c r="W7">
-        <f>S7 - (T7 * P7)</f>
+        <f t="shared" si="11"/>
         <v>3.4864311816943529E-2</v>
       </c>
       <c r="X7">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y7">
-        <f>T7 * U7</f>
+        <f t="shared" si="12"/>
         <v>-9.0891620835457411E-3</v>
       </c>
       <c r="Z7">
-        <f>W7 * (((S7-W7) / (V7)) * ((U7) / (P7)) + (1 + ((S7-W7) / (V7))) * ((1 + COS(J7)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>2.9897869447609682E-2</v>
       </c>
       <c r="AA7">
-        <f>(X7 * S7) * ((1 - COS(J7)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>3.7127803255684088E-3</v>
       </c>
       <c r="AB7">
-        <f xml:space="preserve"> Y7 + Z7 + AA7</f>
+        <f t="shared" si="15"/>
         <v>2.4521487689632349E-2</v>
       </c>
       <c r="AC7">
-        <f>(SIN(N7)*COS(K7)-COS(F7)*COS(N7)*SIN(K7))/SIN(ACOS(P7))</f>
+        <f t="shared" si="16"/>
         <v>0.19601291625086428</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.3735060288613261</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>78.696098589527821</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>6.272181937441197E-17</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>6.272181937441197E-17</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>3.5936955335356833E-15</v>
       </c>
     </row>
@@ -7654,7 +8587,7 @@
         <v>-75</v>
       </c>
       <c r="F8">
-        <f>((E8) * PI())/180</f>
+        <f t="shared" ref="F8:F18" si="25">((E8) * PI())/180</f>
         <v>-1.3089969389957472</v>
       </c>
       <c r="G8">
@@ -7664,11 +8597,11 @@
         <v>45</v>
       </c>
       <c r="I8">
-        <f>((G8) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>((H8) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K8">
@@ -7680,86 +8613,86 @@
         <v>2.1118483949131388</v>
       </c>
       <c r="M8">
-        <f>(2 * PI() * (D8 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N8">
-        <f>0.006918 - 0.399912 * COS(M8) + 0.070257 * SIN(M8) - 0.006758 * COS(2 * M8) + 0.000908 * SIN(2 * M8)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P8">
-        <f>(COS(K8) * COS(N8) * COS(F8)) + (SIN(N8) * SIN(K8))</f>
+        <f t="shared" si="19"/>
         <v>0.32008740993442175</v>
       </c>
       <c r="Q8">
-        <f>(COS(N8) * SIN(F8))/COS(N57)</f>
+        <f t="shared" si="5"/>
         <v>-0.99563869564611585</v>
       </c>
       <c r="R8">
-        <f>COS(N8 -K8)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S8">
-        <f>(0.42 * P8) + (((2.92 - R8) / (2 * R8)) * P8^2) - ((((2.92 -R8) / (4 *R8^2))) * P8^3)</f>
+        <f t="shared" si="7"/>
         <v>0.2197340974239351</v>
       </c>
       <c r="T8">
-        <f>((1.323 * S8) / (P8)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.36161507459923292</v>
       </c>
       <c r="U8">
-        <f>(SIN(K8) * COS(J8) - COS(K8) * SIN(J8) * COS(I8)) * SIN(N8) + (COS(K8) * COS(J8) + SIN(K8) * SIN(J8) * COS(I8)) * COS(N8) * COS(F8) + SIN(J8) * SIN(I8) * COS(N8) *SIN(F8)</f>
+        <f t="shared" si="9"/>
         <v>0.16383856466013619</v>
       </c>
       <c r="V8">
-        <f>C8 * (1 + 0.033 * COS((D8 - 2) * ((2 * PI()) / (365)))) * P8</f>
+        <f t="shared" si="10"/>
         <v>0.43749285450157538</v>
       </c>
       <c r="W8">
-        <f>S8 - (T8 * P8)</f>
+        <f t="shared" si="11"/>
         <v>0.10398566480222393</v>
       </c>
       <c r="X8">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y8">
-        <f>T8 * U8</f>
+        <f t="shared" si="12"/>
         <v>5.9246494781806394E-2</v>
       </c>
       <c r="Z8">
-        <f>W8 * (((S8-W8) / (V8)) * ((U8) / (P8)) + (1 + ((S8-W8) / (V8))) * ((1 + COS(J8)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.12632205931396581</v>
       </c>
       <c r="AA8">
-        <f>(X8 * S8) * ((1 - COS(J8)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>1.7698622446330404E-2</v>
       </c>
       <c r="AB8">
-        <f xml:space="preserve"> Y8 + Z8 + AA8</f>
+        <f t="shared" si="15"/>
         <v>0.20326717654210263</v>
       </c>
       <c r="AC8">
-        <f>(SIN(N8)*COS(K8)-COS(F8)*COS(N8)*SIN(K8))/SIN(ACOS(P8))</f>
+        <f t="shared" si="16"/>
         <v>9.3293020811318392E-2</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.4773674425179559</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>84.646919246315122</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.25881904510252068</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0.26179938779914935</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>14.999999999999996</v>
       </c>
     </row>
@@ -7777,7 +8710,7 @@
         <v>-60</v>
       </c>
       <c r="F9">
-        <f>((E9) * PI())/180</f>
+        <f t="shared" si="25"/>
         <v>-1.0471975511965976</v>
       </c>
       <c r="G9">
@@ -7787,102 +8720,102 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <f>((G9) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>((H9) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M9">
-        <f>(2 * PI() * (D9 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N9">
-        <f>0.006918 - 0.399912 * COS(M9) + 0.070257 * SIN(M9) - 0.006758 * COS(2 * M9) + 0.000908 * SIN(2 * M9)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P9">
-        <f>(COS(K9) * COS(N9) * COS(F9)) + (SIN(N9) * SIN(K9))</f>
+        <f t="shared" si="19"/>
         <v>0.53354155707089701</v>
       </c>
       <c r="Q9">
-        <f>(COS(N9) * SIN(F9))/COS(N58)</f>
+        <f t="shared" si="5"/>
         <v>-0.99991308836651904</v>
       </c>
       <c r="R9">
-        <f>COS(N9 -K9)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S9">
-        <f>(0.42 * P9) + (((2.92 - R9) / (2 * R9)) * P9^2) - ((((2.92 -R9) / (4 *R9^2))) * P9^3)</f>
+        <f t="shared" si="7"/>
         <v>0.43008383184911853</v>
       </c>
       <c r="T9">
-        <f>((1.323 * S9) / (P9)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.51986033846014923</v>
       </c>
       <c r="U9">
-        <f>(SIN(K9) * COS(J9) - COS(K9) * SIN(J9) * COS(I9)) * SIN(N9) + (COS(K9) * COS(J9) + SIN(K9) * SIN(J9) * COS(I9)) * COS(N9) * COS(F9) + SIN(J9) * SIN(I9) * COS(N9) *SIN(F9)</f>
+        <f t="shared" si="9"/>
         <v>0.38515552762713762</v>
       </c>
       <c r="V9">
-        <f>C9 * (1 + 0.033 * COS((D9 - 2) * ((2 * PI()) / (365)))) * P9</f>
+        <f t="shared" si="10"/>
         <v>0.72924023736511301</v>
       </c>
       <c r="W9">
-        <f>S9 - (T9 * P9)</f>
+        <f t="shared" si="11"/>
         <v>0.15271673740768699</v>
       </c>
       <c r="X9">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y9">
-        <f>T9 * U9</f>
+        <f t="shared" si="12"/>
         <v>0.20022708295204111</v>
       </c>
       <c r="Z9">
-        <f>W9 * (((S9-W9) / (V9)) * ((U9) / (P9)) + (1 + ((S9-W9) / (V9))) * ((1 + COS(J9)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.22186268085080002</v>
       </c>
       <c r="AA9">
-        <f>(X9 * S9) * ((1 - COS(J9)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>3.4641375414225788E-2</v>
       </c>
       <c r="AB9">
-        <f xml:space="preserve"> Y9 + Z9 + AA9</f>
+        <f t="shared" si="15"/>
         <v>0.45673113921706693</v>
       </c>
       <c r="AC9">
-        <f>(SIN(N9)*COS(K9)-COS(F9)*COS(N9)*SIN(K9))/SIN(ACOS(P9))</f>
+        <f t="shared" si="16"/>
         <v>-1.3183918739514175E-2</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.583980627492994</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>90.755404785832354</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.50000000000000022</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0.52359877559829915</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>30.000000000000014</v>
       </c>
     </row>
@@ -7900,7 +8833,7 @@
         <v>-45</v>
       </c>
       <c r="F10">
-        <f>((E10) * PI())/180</f>
+        <f t="shared" si="25"/>
         <v>-0.78539816339744828</v>
       </c>
       <c r="G10">
@@ -7910,102 +8843,102 @@
         <v>45</v>
       </c>
       <c r="I10">
-        <f>((G10) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>((H10) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M10">
-        <f>(2 * PI() * (D10 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N10">
-        <f>0.006918 - 0.399912 * COS(M10) + 0.070257 * SIN(M10) - 0.006758 * COS(2 * M10) + 0.000908 * SIN(2 * M10)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P10">
-        <f>(COS(K10) * COS(N10) * COS(F10)) + (SIN(N10) * SIN(K10))</f>
+        <f t="shared" si="19"/>
         <v>0.71683878865846906</v>
       </c>
       <c r="Q10">
-        <f>(COS(N10) * SIN(F10))/COS(N59)</f>
+        <f t="shared" si="5"/>
         <v>-0.99035121382672409</v>
       </c>
       <c r="R10">
-        <f>COS(N10 -K10)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S10">
-        <f>(0.42 * P10) + (((2.92 - R10) / (2 * R10)) * P10^2) - ((((2.92 -R10) / (4 *R10^2))) * P10^3)</f>
+        <f t="shared" si="7"/>
         <v>0.62487358130115422</v>
       </c>
       <c r="T10">
-        <f>((1.323 * S10) / (P10)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.60666871416734103</v>
       </c>
       <c r="U10">
-        <f>(SIN(K10) * COS(J10) - COS(K10) * SIN(J10) * COS(I10)) * SIN(N10) + (COS(K10) * COS(J10) + SIN(K10) * SIN(J10) * COS(I10)) * COS(N10) * COS(F10) + SIN(J10) * SIN(I10) * COS(N10) *SIN(F10)</f>
+        <f t="shared" si="9"/>
         <v>0.57520471223859237</v>
       </c>
       <c r="V10">
-        <f>C10 * (1 + 0.033 * COS((D10 - 2) * ((2 * PI()) / (365)))) * P10</f>
+        <f t="shared" si="10"/>
         <v>0.97976939465346891</v>
       </c>
       <c r="W10">
-        <f>S10 - (T10 * P10)</f>
+        <f t="shared" si="11"/>
         <v>0.1899899151204465</v>
       </c>
       <c r="X10">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y10">
-        <f>T10 * U10</f>
+        <f t="shared" si="12"/>
         <v>0.34895870315678224</v>
       </c>
       <c r="Z10">
-        <f>W10 * (((S10-W10) / (V10)) * ((U10) / (P10)) + (1 + ((S10-W10) / (V10))) * ((1 + COS(J10)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.30181389911648082</v>
       </c>
       <c r="AA10">
-        <f>(X10 * S10) * ((1 - COS(J10)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>5.0330839509165774E-2</v>
       </c>
       <c r="AB10">
-        <f xml:space="preserve"> Y10 + Z10 + AA10</f>
+        <f t="shared" si="15"/>
         <v>0.70110344178242878</v>
       </c>
       <c r="AC10">
-        <f>(SIN(N10)*COS(K10)-COS(F10)*COS(N10)*SIN(K10))/SIN(ACOS(P10))</f>
+        <f t="shared" si="16"/>
         <v>-0.13858020519516431</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.7098239696152726</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>97.965697169259826</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>45.000000000000007</v>
       </c>
     </row>
@@ -8023,7 +8956,7 @@
         <v>-30</v>
       </c>
       <c r="F11">
-        <f>((E11) * PI())/180</f>
+        <f t="shared" si="25"/>
         <v>-0.52359877559829882</v>
       </c>
       <c r="G11">
@@ -8033,102 +8966,102 @@
         <v>45</v>
       </c>
       <c r="I11">
-        <f>((G11) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>((H11) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M11">
-        <f>(2 * PI() * (D11 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N11">
-        <f>0.006918 - 0.399912 * COS(M11) + 0.070257 * SIN(M11) - 0.006758 * COS(2 * M11) + 0.000908 * SIN(2 * M11)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P11">
-        <f>(COS(K11) * COS(N11) * COS(F11)) + (SIN(N11) * SIN(K11))</f>
+        <f t="shared" si="19"/>
         <v>0.85748770127744278</v>
       </c>
       <c r="Q11">
-        <f>(COS(N11) * SIN(F11))/COS(N60)</f>
+        <f t="shared" si="5"/>
         <v>-0.94900113847257905</v>
       </c>
       <c r="R11">
-        <f>COS(N11 -K11)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S11">
-        <f>(0.42 * P11) + (((2.92 - R11) / (2 * R11)) * P11^2) - ((((2.92 -R11) / (4 *R11^2))) * P11^3)</f>
+        <f t="shared" si="7"/>
         <v>0.77072108306392617</v>
       </c>
       <c r="T11">
-        <f>((1.323 * S11) / (P11)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.64252958328676812</v>
       </c>
       <c r="U11">
-        <f>(SIN(K11) * COS(J11) - COS(K11) * SIN(J11) * COS(I11)) * SIN(N11) + (COS(K11) * COS(J11) + SIN(K11) * SIN(J11) * COS(I11)) * COS(N11) * COS(F11) + SIN(J11) * SIN(I11) * COS(N11) *SIN(F11)</f>
+        <f t="shared" si="9"/>
         <v>0.72103458063435732</v>
       </c>
       <c r="V11">
-        <f>C11 * (1 + 0.033 * COS((D11 - 2) * ((2 * PI()) / (365)))) * P11</f>
+        <f t="shared" si="10"/>
         <v>1.1720071783164505</v>
       </c>
       <c r="W11">
-        <f>S11 - (T11 * P11)</f>
+        <f t="shared" si="11"/>
         <v>0.21975986768860212</v>
       </c>
       <c r="X11">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y11">
-        <f>T11 * U11</f>
+        <f t="shared" si="12"/>
         <v>0.46328604863034323</v>
       </c>
       <c r="Z11">
-        <f>W11 * (((S11-W11) / (V11)) * ((U11) / (P11)) + (1 + ((S11-W11) / (V11))) * ((1 + COS(J11)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.36262622981833892</v>
       </c>
       <c r="AA11">
-        <f>(X11 * S11) * ((1 - COS(J11)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>6.2078219177145483E-2</v>
       </c>
       <c r="AB11">
-        <f xml:space="preserve"> Y11 + Z11 + AA11</f>
+        <f t="shared" si="15"/>
         <v>0.8879904976258276</v>
       </c>
       <c r="AC11">
-        <f>(SIN(N11)*COS(K11)-COS(F11)*COS(N11)*SIN(K11))/SIN(ACOS(P11))</f>
+        <f t="shared" si="16"/>
         <v>-0.31527264260913646</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.8915402614304571</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>108.37727375903756</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.0471975511965979</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>60.000000000000007</v>
       </c>
     </row>
@@ -8146,7 +9079,7 @@
         <v>-15</v>
       </c>
       <c r="F12">
-        <f>((E12) * PI())/180</f>
+        <f t="shared" si="25"/>
         <v>-0.26179938779914941</v>
       </c>
       <c r="G12">
@@ -8156,102 +9089,102 @@
         <v>45</v>
       </c>
       <c r="I12">
-        <f>((G12) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>((H12) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M12">
-        <f>(2 * PI() * (D12 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N12">
-        <f>0.006918 - 0.399912 * COS(M12) + 0.070257 * SIN(M12) - 0.006758 * COS(2 * M12) + 0.000908 * SIN(2 * M12)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P12">
-        <f>(COS(K12) * COS(N12) * COS(F12)) + (SIN(N12) * SIN(K12))</f>
+        <f t="shared" si="19"/>
         <v>0.94590330396615285</v>
       </c>
       <c r="Q12">
-        <f>(COS(N12) * SIN(F12))/COS(N61)</f>
+        <f t="shared" si="5"/>
         <v>-0.77899757798645797</v>
       </c>
       <c r="R12">
-        <f>COS(N12 -K12)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S12">
-        <f>(0.42 * P12) + (((2.92 - R12) / (2 * R12)) * P12^2) - ((((2.92 -R12) / (4 *R12^2))) * P12^3)</f>
+        <f t="shared" si="7"/>
         <v>0.85653532913568187</v>
       </c>
       <c r="T12">
-        <f>((1.323 * S12) / (P12)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.65140431576360802</v>
       </c>
       <c r="U12">
-        <f>(SIN(K12) * COS(J12) - COS(K12) * SIN(J12) * COS(I12)) * SIN(N12) + (COS(K12) * COS(J12) + SIN(K12) * SIN(J12) * COS(I12)) * COS(N12) * COS(F12) + SIN(J12) * SIN(I12) * COS(N12) *SIN(F12)</f>
+        <f t="shared" si="9"/>
         <v>0.81270706827851324</v>
       </c>
       <c r="V12">
-        <f>C12 * (1 + 0.033 * COS((D12 - 2) * ((2 * PI()) / (365)))) * P12</f>
+        <f t="shared" si="10"/>
         <v>1.2928529010853835</v>
       </c>
       <c r="W12">
-        <f>S12 - (T12 * P12)</f>
+        <f t="shared" si="11"/>
         <v>0.24036983463707395</v>
       </c>
       <c r="X12">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y12">
-        <f>T12 * U12</f>
+        <f t="shared" si="12"/>
         <v>0.52940089172821281</v>
       </c>
       <c r="Z12">
-        <f>W12 * (((S12-W12) / (V12)) * ((U12) / (P12)) + (1 + ((S12-W12) / (V12))) * ((1 + COS(J12)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.40137777539319136</v>
       </c>
       <c r="AA12">
-        <f>(X12 * S12) * ((1 - COS(J12)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>6.8990182133947184E-2</v>
       </c>
       <c r="AB12">
-        <f xml:space="preserve"> Y12 + Z12 + AA12</f>
+        <f t="shared" si="15"/>
         <v>0.99976884925535137</v>
       </c>
       <c r="AC12">
-        <f>(SIN(N12)*COS(K12)-COS(F12)*COS(N12)*SIN(K12))/SIN(ACOS(P12))</f>
+        <f t="shared" si="16"/>
         <v>-0.62702693203022031</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>2.2485271183510451</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>128.83111400222785</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.9659258262890682</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.3089969389957468</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>74.999999999999986</v>
       </c>
       <c r="BO12">
@@ -8287,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f>((E13) * PI())/180</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G13">
@@ -8297,82 +9230,82 @@
         <v>45</v>
       </c>
       <c r="I13">
-        <f>((G13) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>((H13) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M13">
-        <f>(2 * PI() * (D13 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N13">
-        <f>0.006918 - 0.399912 * COS(M13) + 0.070257 * SIN(M13) - 0.006758 * COS(2 * M13) + 0.000908 * SIN(2 * M13)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P13">
-        <f>(COS(K13) * COS(N13) * COS(F13)) + (SIN(N13) * SIN(K13))</f>
+        <f t="shared" si="19"/>
         <v>0.97606021951505573</v>
       </c>
       <c r="Q13">
-        <f>(COS(N13) * SIN(F13))/COS(N62)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f>COS(N13 -K13)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S13">
-        <f>(0.42 * P13) + (((2.92 - R13) / (2 * R13)) * P13^2) - ((((2.92 -R13) / (4 *R13^2))) * P13^3)</f>
+        <f t="shared" si="7"/>
         <v>0.88429586441236907</v>
       </c>
       <c r="T13">
-        <f>((1.323 * S13) / (P13)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.65201808239539472</v>
       </c>
       <c r="U13">
-        <f>(SIN(K13) * COS(J13) - COS(K13) * SIN(J13) * COS(I13)) * SIN(N13) + (COS(K13) * COS(J13) + SIN(K13) * SIN(J13) * COS(I13)) * COS(N13) * COS(F13) + SIN(J13) * SIN(I13) * COS(N13) *SIN(F13)</f>
+        <f t="shared" si="9"/>
         <v>0.84397484663405975</v>
       </c>
       <c r="V13">
-        <f>C13 * (1 + 0.033 * COS((D13 - 2) * ((2 * PI()) / (365)))) * P13</f>
+        <f t="shared" si="10"/>
         <v>1.3340711266605645</v>
       </c>
       <c r="W13">
-        <f>S13 - (T13 * P13)</f>
+        <f t="shared" si="11"/>
         <v>0.24788695178173437</v>
       </c>
       <c r="X13">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y13">
-        <f>T13 * U13</f>
+        <f t="shared" si="12"/>
         <v>0.55028686109228697</v>
       </c>
       <c r="Z13">
-        <f>W13 * (((S13-W13) / (V13)) * ((U13) / (P13)) + (1 + ((S13-W13) / (V13))) * ((1 + COS(J13)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.41476983081726221</v>
       </c>
       <c r="AA13">
-        <f>(X13 * S13) * ((1 - COS(J13)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>7.1226172080569847E-2</v>
       </c>
       <c r="AB13">
-        <f xml:space="preserve"> Y13 + Z13 + AA13</f>
+        <f t="shared" si="15"/>
         <v>1.0362828639901189</v>
       </c>
       <c r="AC13">
-        <f>(SIN(N13)*COS(K13)-COS(F13)*COS(N13)*SIN(K13))/SIN(ACOS(P13))</f>
+        <f t="shared" si="16"/>
         <v>-0.99999999999999845</v>
       </c>
       <c r="AD13">
@@ -8380,19 +9313,19 @@
         <v>3.1415925978347534</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>179.99999680547154</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>90</v>
       </c>
       <c r="BO13">
@@ -8431,7 +9364,7 @@
         <v>15</v>
       </c>
       <c r="F14">
-        <f>((E14) * PI())/180</f>
+        <f t="shared" si="25"/>
         <v>0.26179938779914941</v>
       </c>
       <c r="G14">
@@ -8441,102 +9374,102 @@
         <v>45</v>
       </c>
       <c r="I14">
-        <f>((G14) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>((H14) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M14">
-        <f>(2 * PI() * (D14 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N14">
-        <f>0.006918 - 0.399912 * COS(M14) + 0.070257 * SIN(M14) - 0.006758 * COS(2 * M14) + 0.000908 * SIN(2 * M14)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P14">
-        <f>(COS(K14) * COS(N14) * COS(F14)) + (SIN(N14) * SIN(K14))</f>
+        <f t="shared" si="19"/>
         <v>0.94590330396615285</v>
       </c>
       <c r="Q14">
-        <f>(COS(N14) * SIN(F14))/COS(N63)</f>
+        <f t="shared" si="5"/>
         <v>0.77899757798645797</v>
       </c>
       <c r="R14">
-        <f>COS(N14 -K14)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S14">
-        <f>(0.42 * P14) + (((2.92 - R14) / (2 * R14)) * P14^2) - ((((2.92 -R14) / (4 *R14^2))) * P14^3)</f>
+        <f t="shared" si="7"/>
         <v>0.85653532913568187</v>
       </c>
       <c r="T14">
-        <f>((1.323 * S14) / (P14)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.65140431576360802</v>
       </c>
       <c r="U14">
-        <f>(SIN(K14) * COS(J14) - COS(K14) * SIN(J14) * COS(I14)) * SIN(N14) + (COS(K14) * COS(J14) + SIN(K14) * SIN(J14) * COS(I14)) * COS(N14) * COS(F14) + SIN(J14) * SIN(I14) * COS(N14) *SIN(F14)</f>
+        <f t="shared" si="9"/>
         <v>0.81270706827851324</v>
       </c>
       <c r="V14">
-        <f>C14 * (1 + 0.033 * COS((D14 - 2) * ((2 * PI()) / (365)))) * P14</f>
+        <f t="shared" si="10"/>
         <v>1.2928529010853835</v>
       </c>
       <c r="W14">
-        <f>S14 - (T14 * P14)</f>
+        <f t="shared" si="11"/>
         <v>0.24036983463707395</v>
       </c>
       <c r="X14">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y14">
-        <f>T14 * U14</f>
+        <f t="shared" si="12"/>
         <v>0.52940089172821281</v>
       </c>
       <c r="Z14">
-        <f>W14 * (((S14-W14) / (V14)) * ((U14) / (P14)) + (1 + ((S14-W14) / (V14))) * ((1 + COS(J14)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.40137777539319136</v>
       </c>
       <c r="AA14">
-        <f>(X14 * S14) * ((1 - COS(J14)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>6.8990182133947184E-2</v>
       </c>
       <c r="AB14">
-        <f xml:space="preserve"> Y14 + Z14 + AA14</f>
+        <f t="shared" si="15"/>
         <v>0.99976884925535137</v>
       </c>
       <c r="AC14">
-        <f>(SIN(N14)*COS(K14)-COS(F14)*COS(N14)*SIN(K14))/SIN(ACOS(P14))</f>
+        <f t="shared" si="16"/>
         <v>-0.62702693203022031</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>2.2485271183510451</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>128.83111400222785</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.9659258262890682</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.3089969389957468</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>74.999999999999986</v>
       </c>
       <c r="BO14">
@@ -8575,7 +9508,7 @@
         <v>30</v>
       </c>
       <c r="F15">
-        <f>((E15) * PI())/180</f>
+        <f t="shared" si="25"/>
         <v>0.52359877559829882</v>
       </c>
       <c r="G15">
@@ -8585,102 +9518,102 @@
         <v>45</v>
       </c>
       <c r="I15">
-        <f>((G15) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>((H15) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M15">
-        <f>(2 * PI() * (D15 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N15">
-        <f>0.006918 - 0.399912 * COS(M15) + 0.070257 * SIN(M15) - 0.006758 * COS(2 * M15) + 0.000908 * SIN(2 * M15)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P15">
-        <f>(COS(K15) * COS(N15) * COS(F15)) + (SIN(N15) * SIN(K15))</f>
+        <f t="shared" si="19"/>
         <v>0.85748770127744278</v>
       </c>
       <c r="Q15">
-        <f>(COS(N15) * SIN(F15))/COS(N64)</f>
+        <f t="shared" si="5"/>
         <v>0.94900113847257905</v>
       </c>
       <c r="R15">
-        <f>COS(N15 -K15)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S15">
-        <f>(0.42 * P15) + (((2.92 - R15) / (2 * R15)) * P15^2) - ((((2.92 -R15) / (4 *R15^2))) * P15^3)</f>
+        <f t="shared" si="7"/>
         <v>0.77072108306392617</v>
       </c>
       <c r="T15">
-        <f>((1.323 * S15) / (P15)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.64252958328676812</v>
       </c>
       <c r="U15">
-        <f>(SIN(K15) * COS(J15) - COS(K15) * SIN(J15) * COS(I15)) * SIN(N15) + (COS(K15) * COS(J15) + SIN(K15) * SIN(J15) * COS(I15)) * COS(N15) * COS(F15) + SIN(J15) * SIN(I15) * COS(N15) *SIN(F15)</f>
+        <f t="shared" si="9"/>
         <v>0.72103458063435732</v>
       </c>
       <c r="V15">
-        <f>C15 * (1 + 0.033 * COS((D15 - 2) * ((2 * PI()) / (365)))) * P15</f>
+        <f t="shared" si="10"/>
         <v>1.1720071783164505</v>
       </c>
       <c r="W15">
-        <f>S15 - (T15 * P15)</f>
+        <f t="shared" si="11"/>
         <v>0.21975986768860212</v>
       </c>
       <c r="X15">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y15">
-        <f>T15 * U15</f>
+        <f t="shared" si="12"/>
         <v>0.46328604863034323</v>
       </c>
       <c r="Z15">
-        <f>W15 * (((S15-W15) / (V15)) * ((U15) / (P15)) + (1 + ((S15-W15) / (V15))) * ((1 + COS(J15)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.36262622981833892</v>
       </c>
       <c r="AA15">
-        <f>(X15 * S15) * ((1 - COS(J15)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>6.2078219177145483E-2</v>
       </c>
       <c r="AB15">
-        <f xml:space="preserve"> Y15 + Z15 + AA15</f>
+        <f t="shared" si="15"/>
         <v>0.8879904976258276</v>
       </c>
       <c r="AC15">
-        <f>(SIN(N15)*COS(K15)-COS(F15)*COS(N15)*SIN(K15))/SIN(ACOS(P15))</f>
+        <f t="shared" si="16"/>
         <v>-0.31527264260913646</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.8915402614304571</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>108.37727375903756</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.0471975511965979</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>60.000000000000007</v>
       </c>
       <c r="BO15">
@@ -8719,7 +9652,7 @@
         <v>45</v>
       </c>
       <c r="F16">
-        <f>((E16) * PI())/180</f>
+        <f t="shared" si="25"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="G16">
@@ -8729,102 +9662,102 @@
         <v>45</v>
       </c>
       <c r="I16">
-        <f>((G16) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>((H16) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M16">
-        <f>(2 * PI() * (D16 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N16">
-        <f>0.006918 - 0.399912 * COS(M16) + 0.070257 * SIN(M16) - 0.006758 * COS(2 * M16) + 0.000908 * SIN(2 * M16)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P16">
-        <f>(COS(K16) * COS(N16) * COS(F16)) + (SIN(N16) * SIN(K16))</f>
+        <f t="shared" si="19"/>
         <v>0.71683878865846906</v>
       </c>
       <c r="Q16">
-        <f>(COS(N16) * SIN(F16))/COS(N65)</f>
+        <f t="shared" si="5"/>
         <v>0.99035121382672409</v>
       </c>
       <c r="R16">
-        <f>COS(N16 -K16)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S16">
-        <f>(0.42 * P16) + (((2.92 - R16) / (2 * R16)) * P16^2) - ((((2.92 -R16) / (4 *R16^2))) * P16^3)</f>
+        <f t="shared" si="7"/>
         <v>0.62487358130115422</v>
       </c>
       <c r="T16">
-        <f>((1.323 * S16) / (P16)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.60666871416734103</v>
       </c>
       <c r="U16">
-        <f>(SIN(K16) * COS(J16) - COS(K16) * SIN(J16) * COS(I16)) * SIN(N16) + (COS(K16) * COS(J16) + SIN(K16) * SIN(J16) * COS(I16)) * COS(N16) * COS(F16) + SIN(J16) * SIN(I16) * COS(N16) *SIN(F16)</f>
+        <f t="shared" si="9"/>
         <v>0.57520471223859237</v>
       </c>
       <c r="V16">
-        <f>C16 * (1 + 0.033 * COS((D16 - 2) * ((2 * PI()) / (365)))) * P16</f>
+        <f t="shared" si="10"/>
         <v>0.97976939465346891</v>
       </c>
       <c r="W16">
-        <f>S16 - (T16 * P16)</f>
+        <f t="shared" si="11"/>
         <v>0.1899899151204465</v>
       </c>
       <c r="X16">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y16">
-        <f>T16 * U16</f>
+        <f t="shared" si="12"/>
         <v>0.34895870315678224</v>
       </c>
       <c r="Z16">
-        <f>W16 * (((S16-W16) / (V16)) * ((U16) / (P16)) + (1 + ((S16-W16) / (V16))) * ((1 + COS(J16)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.30181389911648082</v>
       </c>
       <c r="AA16">
-        <f>(X16 * S16) * ((1 - COS(J16)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>5.0330839509165774E-2</v>
       </c>
       <c r="AB16">
-        <f xml:space="preserve"> Y16 + Z16 + AA16</f>
+        <f t="shared" si="15"/>
         <v>0.70110344178242878</v>
       </c>
       <c r="AC16">
-        <f>(SIN(N16)*COS(K16)-COS(F16)*COS(N16)*SIN(K16))/SIN(ACOS(P16))</f>
+        <f t="shared" si="16"/>
         <v>-0.13858020519516431</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.7098239696152726</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>97.965697169259826</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>45.000000000000007</v>
       </c>
       <c r="BO16">
@@ -8866,7 +9799,7 @@
         <v>60</v>
       </c>
       <c r="F17">
-        <f>((E17) * PI())/180</f>
+        <f t="shared" si="25"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="G17">
@@ -8876,102 +9809,102 @@
         <v>45</v>
       </c>
       <c r="I17">
-        <f>((G17) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>((H17) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M17">
-        <f>(2 * PI() * (D17 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N17">
-        <f>0.006918 - 0.399912 * COS(M17) + 0.070257 * SIN(M17) - 0.006758 * COS(2 * M17) + 0.000908 * SIN(2 * M17)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P17">
-        <f>(COS(K17) * COS(N17) * COS(F17)) + (SIN(N17) * SIN(K17))</f>
+        <f t="shared" si="19"/>
         <v>0.53354155707089701</v>
       </c>
       <c r="Q17">
-        <f>(COS(N17) * SIN(F17))/COS(N66)</f>
+        <f t="shared" si="5"/>
         <v>0.99991308836651904</v>
       </c>
       <c r="R17">
-        <f>COS(N17 -K17)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S17">
-        <f>(0.42 * P17) + (((2.92 - R17) / (2 * R17)) * P17^2) - ((((2.92 -R17) / (4 *R17^2))) * P17^3)</f>
+        <f t="shared" si="7"/>
         <v>0.43008383184911853</v>
       </c>
       <c r="T17">
-        <f>((1.323 * S17) / (P17)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.51986033846014923</v>
       </c>
       <c r="U17">
-        <f>(SIN(K17) * COS(J17) - COS(K17) * SIN(J17) * COS(I17)) * SIN(N17) + (COS(K17) * COS(J17) + SIN(K17) * SIN(J17) * COS(I17)) * COS(N17) * COS(F17) + SIN(J17) * SIN(I17) * COS(N17) *SIN(F17)</f>
+        <f t="shared" si="9"/>
         <v>0.38515552762713762</v>
       </c>
       <c r="V17">
-        <f>C17 * (1 + 0.033 * COS((D17 - 2) * ((2 * PI()) / (365)))) * P17</f>
+        <f t="shared" si="10"/>
         <v>0.72924023736511301</v>
       </c>
       <c r="W17">
-        <f>S17 - (T17 * P17)</f>
+        <f t="shared" si="11"/>
         <v>0.15271673740768699</v>
       </c>
       <c r="X17">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y17">
-        <f>T17 * U17</f>
+        <f t="shared" si="12"/>
         <v>0.20022708295204111</v>
       </c>
       <c r="Z17">
-        <f>W17 * (((S17-W17) / (V17)) * ((U17) / (P17)) + (1 + ((S17-W17) / (V17))) * ((1 + COS(J17)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.22186268085080002</v>
       </c>
       <c r="AA17">
-        <f>(X17 * S17) * ((1 - COS(J17)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>3.4641375414225788E-2</v>
       </c>
       <c r="AB17">
-        <f xml:space="preserve"> Y17 + Z17 + AA17</f>
+        <f t="shared" si="15"/>
         <v>0.45673113921706693</v>
       </c>
       <c r="AC17">
-        <f>(SIN(N17)*COS(K17)-COS(F17)*COS(N17)*SIN(K17))/SIN(ACOS(P17))</f>
+        <f t="shared" si="16"/>
         <v>-1.3183918739514175E-2</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.583980627492994</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>90.755404785832354</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.50000000000000022</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0.52359877559829915</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>30.000000000000014</v>
       </c>
     </row>
@@ -8989,7 +9922,7 @@
         <v>75</v>
       </c>
       <c r="F18">
-        <f>((E18) * PI())/180</f>
+        <f t="shared" si="25"/>
         <v>1.3089969389957472</v>
       </c>
       <c r="G18">
@@ -8999,102 +9932,102 @@
         <v>45</v>
       </c>
       <c r="I18">
-        <f>((G18) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>((H18) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M18">
-        <f>(2 * PI() * (D18 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N18">
-        <f>0.006918 - 0.399912 * COS(M18) + 0.070257 * SIN(M18) - 0.006758 * COS(2 * M18) + 0.000908 * SIN(2 * M18)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P18">
-        <f>(COS(K18) * COS(N18) * COS(F18)) + (SIN(N18) * SIN(K18))</f>
+        <f t="shared" si="19"/>
         <v>0.32008740993442175</v>
       </c>
       <c r="Q18">
-        <f>(COS(N18) * SIN(F18))/COS(N67)</f>
+        <f t="shared" si="5"/>
         <v>0.99563869564611585</v>
       </c>
       <c r="R18">
-        <f>COS(N18 -K18)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S18">
-        <f>(0.42 * P18) + (((2.92 - R18) / (2 * R18)) * P18^2) - ((((2.92 -R18) / (4 *R18^2))) * P18^3)</f>
+        <f t="shared" si="7"/>
         <v>0.2197340974239351</v>
       </c>
       <c r="T18">
-        <f>((1.323 * S18) / (P18)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.36161507459923292</v>
       </c>
       <c r="U18">
-        <f>(SIN(K18) * COS(J18) - COS(K18) * SIN(J18) * COS(I18)) * SIN(N18) + (COS(K18) * COS(J18) + SIN(K18) * SIN(J18) * COS(I18)) * COS(N18) * COS(F18) + SIN(J18) * SIN(I18) * COS(N18) *SIN(F18)</f>
+        <f t="shared" si="9"/>
         <v>0.16383856466013619</v>
       </c>
       <c r="V18">
-        <f>C18 * (1 + 0.033 * COS((D18 - 2) * ((2 * PI()) / (365)))) * P18</f>
+        <f t="shared" si="10"/>
         <v>0.43749285450157538</v>
       </c>
       <c r="W18">
-        <f>S18 - (T18 * P18)</f>
+        <f t="shared" si="11"/>
         <v>0.10398566480222393</v>
       </c>
       <c r="X18">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y18">
-        <f>T18 * U18</f>
+        <f t="shared" si="12"/>
         <v>5.9246494781806394E-2</v>
       </c>
       <c r="Z18">
-        <f>W18 * (((S18-W18) / (V18)) * ((U18) / (P18)) + (1 + ((S18-W18) / (V18))) * ((1 + COS(J18)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.12632205931396581</v>
       </c>
       <c r="AA18">
-        <f>(X18 * S18) * ((1 - COS(J18)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>1.7698622446330404E-2</v>
       </c>
       <c r="AB18">
-        <f xml:space="preserve"> Y18 + Z18 + AA18</f>
+        <f t="shared" si="15"/>
         <v>0.20326717654210263</v>
       </c>
       <c r="AC18">
-        <f>(SIN(N18)*COS(K18)-COS(F18)*COS(N18)*SIN(K18))/SIN(ACOS(P18))</f>
+        <f t="shared" si="16"/>
         <v>9.3293020811318392E-2</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.4773674425179559</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>84.646919246315122</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.25881904510252068</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0.26179938779914935</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>14.999999999999996</v>
       </c>
     </row>
@@ -9112,7 +10045,7 @@
         <v>90</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F24" si="8">((E19) * PI())/180</f>
+        <f t="shared" ref="F19:F24" si="26">((E19) * PI())/180</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="G19">
@@ -9122,11 +10055,11 @@
         <v>45</v>
       </c>
       <c r="I19">
-        <f>((G19) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>((H19) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K19">
@@ -9138,86 +10071,86 @@
         <v>2.1118483949131388</v>
       </c>
       <c r="M19">
-        <f>(2 * PI() * (D19 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N19">
-        <f>0.006918 - 0.399912 * COS(M19) + 0.070257 * SIN(M19) - 0.006758 * COS(2 * M19) + 0.000908 * SIN(2 * M19)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P19">
-        <f>(COS(K19) * COS(N19) * COS(F19)) + (SIN(N19) * SIN(K19))</f>
+        <f t="shared" si="19"/>
         <v>9.1022894626738016E-2</v>
       </c>
       <c r="Q19">
-        <f>(COS(N19) * SIN(F19))/COS(N68)</f>
+        <f t="shared" si="5"/>
         <v>0.98060131381863425</v>
       </c>
       <c r="R19">
-        <f>COS(N19 -K19)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S19">
-        <f>(0.42 * P19) + (((2.92 - R19) / (2 * R19)) * P19^2) - ((((2.92 -R19) / (4 *R19^2))) * P19^3)</f>
+        <f t="shared" si="7"/>
         <v>4.6095363424246028E-2</v>
       </c>
       <c r="T19">
-        <f>((1.323 * S19) / (P19)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>0.12338710665441055</v>
       </c>
       <c r="U19">
-        <f>(SIN(K19) * COS(J19) - COS(K19) * SIN(J19) * COS(I19)) * SIN(N19) + (COS(K19) * COS(J19) + SIN(K19) * SIN(J19) * COS(I19)) * COS(N19) * COS(F19) + SIN(J19) * SIN(I19) * COS(N19) *SIN(F19)</f>
+        <f t="shared" si="9"/>
         <v>-7.3663791379784682E-2</v>
       </c>
       <c r="V19">
-        <f>C19 * (1 + 0.033 * COS((D19 - 2) * ((2 * PI()) / (365)))) * P19</f>
+        <f t="shared" si="10"/>
         <v>0.12440934806966095</v>
       </c>
       <c r="W19">
-        <f>S19 - (T19 * P19)</f>
+        <f t="shared" si="11"/>
         <v>3.4864311816943529E-2</v>
       </c>
       <c r="X19">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y19">
-        <f>T19 * U19</f>
+        <f t="shared" si="12"/>
         <v>-9.0891620835457411E-3</v>
       </c>
       <c r="Z19">
-        <f>W19 * (((S19-W19) / (V19)) * ((U19) / (P19)) + (1 + ((S19-W19) / (V19))) * ((1 + COS(J19)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>2.9897869447609682E-2</v>
       </c>
       <c r="AA19">
-        <f>(X19 * S19) * ((1 - COS(J19)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>3.7127803255684088E-3</v>
       </c>
       <c r="AB19">
-        <f xml:space="preserve"> Y19 + Z19 + AA19</f>
+        <f t="shared" si="15"/>
         <v>2.4521487689632349E-2</v>
       </c>
       <c r="AC19">
-        <f>(SIN(N19)*COS(K19)-COS(F19)*COS(N19)*SIN(K19))/SIN(ACOS(P19))</f>
+        <f t="shared" si="16"/>
         <v>0.19601291625086428</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.3735060288613261</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>78.696098589527821</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>6.272181937441197E-17</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>6.272181937441197E-17</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>3.5936955335356833E-15</v>
       </c>
     </row>
@@ -9235,7 +10168,7 @@
         <v>105</v>
       </c>
       <c r="F20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.8325957145940461</v>
       </c>
       <c r="G20">
@@ -9245,102 +10178,102 @@
         <v>45</v>
       </c>
       <c r="I20">
-        <f>((G20) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>((H20) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M20">
-        <f>(2 * PI() * (D20 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N20">
-        <f>0.006918 - 0.399912 * COS(M20) + 0.070257 * SIN(M20) - 0.006758 * COS(2 * M20) + 0.000908 * SIN(2 * M20)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P20">
-        <f>(COS(K20) * COS(N20) * COS(F20)) + (SIN(N20) * SIN(K20))</f>
+        <f t="shared" si="19"/>
         <v>-0.13804162068094594</v>
       </c>
       <c r="Q20">
-        <f>(COS(N20) * SIN(F20))/COS(N69)</f>
+        <f t="shared" si="5"/>
         <v>0.95237378521518046</v>
       </c>
       <c r="R20">
-        <f>COS(N20 -K20)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S20">
-        <f>(0.42 * P20) + (((2.92 - R20) / (2 * R20)) * P20^2) - ((((2.92 -R20) / (4 *R20^2))) * P20^3)</f>
+        <f t="shared" si="7"/>
         <v>-3.7660009655864794E-2</v>
       </c>
       <c r="T20">
-        <f>((1.323 * S20) / (P20)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>-0.18566398281234886</v>
       </c>
       <c r="U20">
-        <f>(SIN(K20) * COS(J20) - COS(K20) * SIN(J20) * COS(I20)) * SIN(N20) + (COS(K20) * COS(J20) + SIN(K20) * SIN(J20) * COS(I20)) * COS(N20) * COS(F20) + SIN(J20) * SIN(I20) * COS(N20) *SIN(F20)</f>
+        <f t="shared" si="9"/>
         <v>-0.31116614741970572</v>
       </c>
       <c r="V20">
-        <f>C20 * (1 + 0.033 * COS((D20 - 2) * ((2 * PI()) / (365)))) * P20</f>
+        <f t="shared" si="10"/>
         <v>-0.18867415836225382</v>
       </c>
       <c r="W20">
-        <f>S20 - (T20 * P20)</f>
+        <f t="shared" si="11"/>
         <v>-6.3289366745360731E-2</v>
       </c>
       <c r="X20">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y20">
-        <f>T20 * U20</f>
+        <f t="shared" si="12"/>
         <v>5.7772346246317052E-2</v>
       </c>
       <c r="Z20">
-        <f>W20 * (((S20-W20) / (V20)) * ((U20) / (P20)) + (1 + ((S20-W20) / (V20))) * ((1 + COS(J20)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>-2.7303389987007789E-2</v>
       </c>
       <c r="AA20">
-        <f>(X20 * S20) * ((1 - COS(J20)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>-3.0333493983792834E-3</v>
       </c>
       <c r="AB20">
-        <f xml:space="preserve"> Y20 + Z20 + AA20</f>
+        <f t="shared" si="15"/>
         <v>2.7435606860929981E-2</v>
       </c>
       <c r="AC20">
-        <f>(SIN(N20)*COS(K20)-COS(F20)*COS(N20)*SIN(K20))/SIN(ACOS(P20))</f>
+        <f t="shared" si="16"/>
         <v>0.30493306353183408</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.2609281821280438</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>72.245863105040101</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>-0.25881904510252085</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>-0.26179938779914952</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>-15.000000000000005</v>
       </c>
     </row>
@@ -9358,7 +10291,7 @@
         <v>120</v>
       </c>
       <c r="F21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>2.0943951023931953</v>
       </c>
       <c r="G21">
@@ -9368,102 +10301,102 @@
         <v>45</v>
       </c>
       <c r="I21">
-        <f>((G21) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>((H21) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M21">
-        <f>(2 * PI() * (D21 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N21">
-        <f>0.006918 - 0.399912 * COS(M21) + 0.070257 * SIN(M21) - 0.006758 * COS(2 * M21) + 0.000908 * SIN(2 * M21)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P21">
-        <f>(COS(K21) * COS(N21) * COS(F21)) + (SIN(N21) * SIN(K21))</f>
+        <f t="shared" si="19"/>
         <v>-0.3514957678174207</v>
       </c>
       <c r="Q21">
-        <f>(COS(N21) * SIN(F21))/COS(N70)</f>
+        <f t="shared" si="5"/>
         <v>0.90334314763464241</v>
       </c>
       <c r="R21">
-        <f>COS(N21 -K21)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S21">
-        <f>(0.42 * P21) + (((2.92 - R21) / (2 * R21)) * P21^2) - ((((2.92 -R21) / (4 *R21^2))) * P21^3)</f>
+        <f t="shared" si="7"/>
         <v>-2.4438352937091214E-3</v>
       </c>
       <c r="T21">
-        <f>((1.323 * S21) / (P21)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>-0.53740161302181988</v>
       </c>
       <c r="U21">
-        <f>(SIN(K21) * COS(J21) - COS(K21) * SIN(J21) * COS(I21)) * SIN(N21) + (COS(K21) * COS(J21) + SIN(K21) * SIN(J21) * COS(I21)) * COS(N21) * COS(F21) + SIN(J21) * SIN(I21) * COS(N21) *SIN(F21)</f>
+        <f t="shared" si="9"/>
         <v>-0.5324831103867067</v>
       </c>
       <c r="V21">
-        <f>C21 * (1 + 0.033 * COS((D21 - 2) * ((2 * PI()) / (365)))) * P21</f>
+        <f t="shared" si="10"/>
         <v>-0.48042154122579067</v>
       </c>
       <c r="W21">
-        <f>S21 - (T21 * P21)</f>
+        <f t="shared" si="11"/>
         <v>-0.1913382278891341</v>
       </c>
       <c r="X21">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y21">
-        <f>T21 * U21</f>
+        <f t="shared" si="12"/>
         <v>0.28615728242869193</v>
       </c>
       <c r="Z21">
-        <f>W21 * (((S21-W21) / (V21)) * ((U21) / (P21)) + (1 + ((S21-W21) / (V21))) * ((1 + COS(J21)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>1.4864806744830204E-2</v>
       </c>
       <c r="AA21">
-        <f>(X21 * S21) * ((1 - COS(J21)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>-1.9684026599170549E-4</v>
       </c>
       <c r="AB21">
-        <f xml:space="preserve"> Y21 + Z21 + AA21</f>
+        <f t="shared" si="15"/>
         <v>0.30082524890753043</v>
       </c>
       <c r="AC21">
-        <f>(SIN(N21)*COS(K21)-COS(F21)*COS(N21)*SIN(K21))/SIN(ACOS(P21))</f>
+        <f t="shared" si="16"/>
         <v>0.4289185909022088</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.1275010094006599</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>64.601049235397966</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>-0.49999999999999972</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>-0.52359877559829848</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>-29.999999999999979</v>
       </c>
     </row>
@@ -9481,7 +10414,7 @@
         <v>135</v>
       </c>
       <c r="F22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>2.3561944901923448</v>
       </c>
       <c r="G22">
@@ -9491,102 +10424,102 @@
         <v>45</v>
       </c>
       <c r="I22">
-        <f>((G22) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>((H22) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M22">
-        <f>(2 * PI() * (D22 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N22">
-        <f>0.006918 - 0.399912 * COS(M22) + 0.070257 * SIN(M22) - 0.006758 * COS(2 * M22) + 0.000908 * SIN(2 * M22)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P22">
-        <f>(COS(K22) * COS(N22) * COS(F22)) + (SIN(N22) * SIN(K22))</f>
+        <f t="shared" si="19"/>
         <v>-0.53479299940499303</v>
       </c>
       <c r="Q22">
-        <f>(COS(N22) * SIN(F22))/COS(N71)</f>
+        <f t="shared" si="5"/>
         <v>0.81718963929492106</v>
       </c>
       <c r="R22">
-        <f>COS(N22 -K22)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S22">
-        <f>(0.42 * P22) + (((2.92 - R22) / (2 * R22)) * P22^2) - ((((2.92 -R22) / (4 *R22^2))) * P22^3)</f>
+        <f t="shared" si="7"/>
         <v>0.13821568496117229</v>
       </c>
       <c r="T22">
-        <f>((1.323 * S22) / (P22)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>-0.88852547659950476</v>
       </c>
       <c r="U22">
-        <f>(SIN(K22) * COS(J22) - COS(K22) * SIN(J22) * COS(I22)) * SIN(N22) + (COS(K22) * COS(J22) + SIN(K22) * SIN(J22) * COS(I22)) * COS(N22) * COS(F22) + SIN(J22) * SIN(I22) * COS(N22) *SIN(F22)</f>
+        <f t="shared" si="9"/>
         <v>-0.72253229499816174</v>
       </c>
       <c r="V22">
-        <f>C22 * (1 + 0.033 * COS((D22 - 2) * ((2 * PI()) / (365)))) * P22</f>
+        <f t="shared" si="10"/>
         <v>-0.73095069851414707</v>
       </c>
       <c r="W22">
-        <f>S22 - (T22 * P22)</f>
+        <f t="shared" si="11"/>
         <v>-0.33696151971722776</v>
       </c>
       <c r="X22">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y22">
-        <f>T22 * U22</f>
+        <f t="shared" si="12"/>
         <v>0.6419883517717756</v>
       </c>
       <c r="Z22">
-        <f>W22 * (((S22-W22) / (V22)) * ((U22) / (P22)) + (1 + ((S22-W22) / (V22))) * ((1 + COS(J22)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.19530888695386564</v>
       </c>
       <c r="AA22">
-        <f>(X22 * S22) * ((1 - COS(J22)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>1.1132670136165557E-2</v>
       </c>
       <c r="AB22">
-        <f xml:space="preserve"> Y22 + Z22 + AA22</f>
+        <f t="shared" si="15"/>
         <v>0.8484299088618068</v>
       </c>
       <c r="AC22">
-        <f>(SIN(N22)*COS(K22)-COS(F22)*COS(N22)*SIN(K22))/SIN(ACOS(P22))</f>
+        <f t="shared" si="16"/>
         <v>0.57636888659003482</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>0.95651805138555457</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>54.80444737246988</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>-0.70710678118654746</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>-0.78539816339744828</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>-45</v>
       </c>
     </row>
@@ -9601,7 +10534,7 @@
         <v>150</v>
       </c>
       <c r="F23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>2.6179938779914944</v>
       </c>
       <c r="G23">
@@ -9611,102 +10544,102 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <f>((G23) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>((H23) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M23">
-        <f>(2 * PI() * (D23 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N23">
-        <f>0.006918 - 0.399912 * COS(M23) + 0.070257 * SIN(M23) - 0.006758 * COS(2 * M23) + 0.000908 * SIN(2 * M23)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P23">
-        <f>(COS(K23) * COS(N23) * COS(F23)) + (SIN(N23) * SIN(K23))</f>
+        <f t="shared" si="19"/>
         <v>-0.67544191202396686</v>
       </c>
       <c r="Q23">
-        <f>(COS(N23) * SIN(F23))/COS(N72)</f>
+        <f t="shared" si="5"/>
         <v>0.66213260447364641</v>
       </c>
       <c r="R23">
-        <f>COS(N23 -K23)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S23">
-        <f>(0.42 * P23) + (((2.92 - R23) / (2 * R23)) * P23^2) - ((((2.92 -R23) / (4 *R23^2))) * P23^3)</f>
+        <f t="shared" si="7"/>
         <v>0.32781745290531794</v>
       </c>
       <c r="T23">
-        <f>((1.323 * S23) / (P23)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>-1.1887018335894242</v>
       </c>
       <c r="U23">
-        <f>(SIN(K23) * COS(J23) - COS(K23) * SIN(J23) * COS(I23)) * SIN(N23) + (COS(K23) * COS(J23) + SIN(K23) * SIN(J23) * COS(I23)) * COS(N23) * COS(F23) + SIN(J23) * SIN(I23) * COS(N23) *SIN(F23)</f>
+        <f t="shared" si="9"/>
         <v>-0.8683621633939268</v>
       </c>
       <c r="V23">
-        <f>C23 * (1 + 0.033 * COS((D23 - 2) * ((2 * PI()) / (365)))) * P23</f>
+        <f t="shared" si="10"/>
         <v>-0.92318848217712879</v>
       </c>
       <c r="W23">
-        <f>S23 - (T23 * P23)</f>
+        <f t="shared" si="11"/>
         <v>-0.47508158640071796</v>
       </c>
       <c r="X23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y23">
-        <f>T23 * U23</f>
+        <f t="shared" si="12"/>
         <v>1.03222369584604</v>
       </c>
       <c r="Z23">
-        <f>W23 * (((S23-W23) / (V23)) * ((U23) / (P23)) + (1 + ((S23-W23) / (V23))) * ((1 + COS(J23)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.47835540450102892</v>
       </c>
       <c r="AA23">
-        <f>(X23 * S23) * ((1 - COS(J23)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>2.6404264965283131E-2</v>
       </c>
       <c r="AB23">
-        <f xml:space="preserve"> Y23 + Z23 + AA23</f>
+        <f t="shared" si="15"/>
         <v>1.5369833653123521</v>
       </c>
       <c r="AC23">
-        <f>(SIN(N23)*COS(K23)-COS(F23)*COS(N23)*SIN(K23))/SIN(ACOS(P23))</f>
+        <f t="shared" si="16"/>
         <v>0.74938669196413243</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>0.72366099561169361</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>41.462720846785231</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>-0.86602540378443871</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>-1.0471975511965981</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>-60.000000000000021</v>
       </c>
     </row>
@@ -9721,7 +10654,7 @@
         <v>165</v>
       </c>
       <c r="F24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>2.8797932657906435</v>
       </c>
       <c r="G24">
@@ -9731,103 +10664,293 @@
         <v>45</v>
       </c>
       <c r="I24">
-        <f>((G24) * PI())/180</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>((H24) * PI())/180</f>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.1118483949131388</v>
       </c>
       <c r="M24">
-        <f>(2 * PI() * (D24 - 1))/365</f>
+        <f t="shared" si="3"/>
         <v>1.9279911079564758</v>
       </c>
       <c r="N24">
-        <f>0.006918 - 0.399912 * COS(M24) + 0.070257 * SIN(M24) - 0.006758 * COS(2 * M24) + 0.000908 * SIN(2 * M24)</f>
+        <f t="shared" si="4"/>
         <v>0.2170794277152647</v>
       </c>
       <c r="P24">
-        <f>(COS(K24) * COS(N24) * COS(F24)) + (SIN(N24) * SIN(K24))</f>
+        <f t="shared" si="19"/>
         <v>-0.76385751471267693</v>
       </c>
       <c r="Q24">
-        <f>(COS(N24) * SIN(F24))/COS(N73)</f>
+        <f t="shared" si="5"/>
         <v>0.39161858248038101</v>
       </c>
       <c r="R24">
-        <f>COS(N24 -K24)</f>
+        <f t="shared" si="6"/>
         <v>0.97606021951505584</v>
       </c>
       <c r="S24">
-        <f>(0.42 * P24) + (((2.92 - R24) / (2 * R24)) * P24^2) - ((((2.92 -R24) / (4 *R24^2))) * P24^3)</f>
+        <f t="shared" si="7"/>
         <v>0.48756911562090088</v>
       </c>
       <c r="T24">
-        <f>((1.323 * S24) / (P24)) - 0.5466</f>
+        <f t="shared" si="8"/>
         <v>-1.3910689324148198</v>
       </c>
       <c r="U24">
-        <f>(SIN(K24) * COS(J24) - COS(K24) * SIN(J24) * COS(I24)) * SIN(N24) + (COS(K24) * COS(J24) + SIN(K24) * SIN(J24) * COS(I24)) * COS(N24) * COS(F24) + SIN(J24) * SIN(I24) * COS(N24) *SIN(F24)</f>
+        <f t="shared" si="9"/>
         <v>-0.96003465103808261</v>
       </c>
       <c r="V24">
-        <f>C24 * (1 + 0.033 * COS((D24 - 2) * ((2 * PI()) / (365)))) * P24</f>
+        <f t="shared" si="10"/>
         <v>-1.0440342049460618</v>
       </c>
       <c r="W24">
-        <f>S24 - (T24 * P24)</f>
+        <f t="shared" si="11"/>
         <v>-0.57500934188750008</v>
       </c>
       <c r="X24">
         <v>0.55000000000000004</v>
       </c>
       <c r="Y24">
-        <f>T24 * U24</f>
+        <f t="shared" si="12"/>
         <v>1.3354743771007795</v>
       </c>
       <c r="Z24">
-        <f>W24 * (((S24-W24) / (V24)) * ((U24) / (P24)) + (1 + ((S24-W24) / (V24))) * ((1 + COS(J24)) / (2)))</f>
+        <f t="shared" si="13"/>
         <v>0.74423977674345865</v>
       </c>
       <c r="AA24">
-        <f>(X24 * S24) * ((1 - COS(J24)) / (2))</f>
+        <f t="shared" si="14"/>
         <v>3.927156410876436E-2</v>
       </c>
       <c r="AB24">
-        <f xml:space="preserve"> Y24 + Z24 + AA24</f>
+        <f t="shared" si="15"/>
         <v>2.1189857179530027</v>
       </c>
       <c r="AC24">
-        <f>(SIN(N24)*COS(K24)-COS(F24)*COS(N24)*SIN(K24))/SIN(ACOS(P24))</f>
+        <f t="shared" si="16"/>
         <v>0.9201276465013194</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>0.402390020311854</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>23.055249882052706</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>-0.9659258262890682</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>-1.3089969389957468</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>-74.999999999999986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>12</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-95.353099999999998</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-89.244600000000005</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-82.034300000000002</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-71.622699999999995</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-51.168900000000001</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>51.168900000000001</v>
+      </c>
+      <c r="K32" s="2">
+        <v>71.622699999999995</v>
+      </c>
+      <c r="L32" s="2">
+        <v>82.034300000000002</v>
+      </c>
+      <c r="M32" s="2">
+        <v>89.244600000000005</v>
+      </c>
+      <c r="N32" s="2">
+        <v>95.353099999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-106.19199999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-101.65</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-97.335700000000003</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-92.733000000000004</v>
+      </c>
+      <c r="H33" s="2">
+        <v>-85.944199999999995</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>85.944199999999995</v>
+      </c>
+      <c r="K33" s="2">
+        <v>92.733000000000004</v>
+      </c>
+      <c r="L33" s="2">
+        <v>97.335700000000003</v>
+      </c>
+      <c r="M33" s="2">
+        <v>101.65</v>
+      </c>
+      <c r="N33" s="2">
+        <v>106.19199999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-83.392799999999994</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-76.131600000000006</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-66.918300000000002</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-53.609699999999997</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-32.217399999999998</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>32.217399999999998</v>
+      </c>
+      <c r="K34" s="2">
+        <v>53.609699999999997</v>
+      </c>
+      <c r="L34" s="2">
+        <v>66.918300000000002</v>
+      </c>
+      <c r="M34" s="2">
+        <v>76.131600000000006</v>
+      </c>
+      <c r="N34" s="2">
+        <v>83.392799999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-62.691699999999997</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-55.255600000000001</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-45.777000000000001</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-33.502499999999998</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-17.9788</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>17.9788</v>
+      </c>
+      <c r="K35" s="2">
+        <v>33.502499999999998</v>
+      </c>
+      <c r="L35" s="2">
+        <v>45.777000000000001</v>
+      </c>
+      <c r="M35" s="2">
+        <v>55.255600000000001</v>
+      </c>
+      <c r="N35" s="2">
+        <v>62.691699999999997</v>
       </c>
     </row>
     <row r="50" spans="14:18" x14ac:dyDescent="0.25">
@@ -9846,415 +10969,415 @@
     </row>
     <row r="51" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N51">
-        <f>ASIN(P2)</f>
+        <f t="shared" ref="N51:N73" si="27">ASIN(P2)</f>
         <v>-0.13848383165314385</v>
       </c>
       <c r="O51">
-        <f>N51 * 180 / PI()</f>
+        <f t="shared" ref="O51:O73" si="28">N51 * 180 / PI()</f>
         <v>-7.9345390845253405</v>
       </c>
       <c r="Q51">
-        <f>ASIN(Q2)</f>
+        <f t="shared" ref="Q51:Q73" si="29">ASIN(Q2)</f>
         <v>-0.25804191509895463</v>
       </c>
       <c r="R51">
-        <f>Q51 * 180 / PI()</f>
+        <f t="shared" ref="R51:R73" si="30">Q51 * 180 / PI()</f>
         <v>-14.784712672643215</v>
       </c>
     </row>
     <row r="52" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N52">
-        <f>ASIN(P3)</f>
+        <f t="shared" si="27"/>
         <v>-0.74156381113320025</v>
       </c>
       <c r="O52">
-        <f>N52 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>-42.488476617568864</v>
       </c>
       <c r="Q52">
-        <f>ASIN(Q3)</f>
+        <f t="shared" si="29"/>
         <v>-0.72366099561169339</v>
       </c>
       <c r="R52">
-        <f>Q52 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>-41.462720846785217</v>
       </c>
     </row>
     <row r="53" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N53">
-        <f>ASIN(P4)</f>
+        <f t="shared" si="27"/>
         <v>-0.56426275212117993</v>
       </c>
       <c r="O53">
-        <f>N53 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>-32.329874232980153</v>
       </c>
       <c r="Q53">
-        <f>ASIN(Q4)</f>
+        <f t="shared" si="29"/>
         <v>-0.95651805138555424</v>
       </c>
       <c r="R53">
-        <f>Q53 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>-54.804447372469859</v>
       </c>
     </row>
     <row r="54" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N54">
-        <f>ASIN(P5)</f>
+        <f t="shared" si="27"/>
         <v>-0.35916834452011814</v>
       </c>
       <c r="O54">
-        <f>N54 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>-20.578830275703481</v>
       </c>
       <c r="Q54">
-        <f>ASIN(Q5)</f>
+        <f t="shared" si="29"/>
         <v>-1.1275010094006594</v>
       </c>
       <c r="R54">
-        <f>Q54 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>-64.601049235397937</v>
       </c>
     </row>
     <row r="55" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N55">
-        <f>ASIN(P6)</f>
+        <f t="shared" si="27"/>
         <v>-0.13848383165314368</v>
       </c>
       <c r="O55">
-        <f>N55 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>-7.9345390845253307</v>
       </c>
       <c r="Q55">
-        <f>ASIN(Q6)</f>
+        <f t="shared" si="29"/>
         <v>-1.2609281821280447</v>
       </c>
       <c r="R55">
-        <f>Q55 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>-72.245863105040158</v>
       </c>
     </row>
     <row r="56" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N56">
-        <f>ASIN(P7)</f>
+        <f t="shared" si="27"/>
         <v>9.114905554975819E-2</v>
       </c>
       <c r="O56">
-        <f>N56 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>5.222456189604638</v>
       </c>
       <c r="Q56">
-        <f>ASIN(Q7)</f>
+        <f t="shared" si="29"/>
         <v>-1.3735060288613259</v>
       </c>
       <c r="R56">
-        <f>Q56 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>-78.696098589527821</v>
       </c>
     </row>
     <row r="57" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N57">
-        <f>ASIN(P8)</f>
+        <f t="shared" si="27"/>
         <v>0.32582174999043373</v>
       </c>
       <c r="O57">
-        <f>N57 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>18.668211148018521</v>
       </c>
       <c r="Q57">
-        <f>ASIN(Q8)</f>
+        <f t="shared" si="29"/>
         <v>-1.4773674425179559</v>
       </c>
       <c r="R57">
-        <f>Q57 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>-84.646919246315122</v>
       </c>
     </row>
     <row r="58" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N58">
-        <f>ASIN(P9)</f>
+        <f t="shared" si="27"/>
         <v>0.56278241859226208</v>
       </c>
       <c r="O58">
-        <f>N58 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>32.245057369501453</v>
       </c>
       <c r="Q58">
-        <f>ASIN(Q9)</f>
+        <f t="shared" si="29"/>
         <v>-1.557612026096808</v>
       </c>
       <c r="R58">
-        <f>Q58 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>-89.244595214168129</v>
       </c>
     </row>
     <row r="59" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N59">
-        <f>ASIN(P10)</f>
+        <f t="shared" si="27"/>
         <v>0.79925778711034334</v>
       </c>
       <c r="O59">
-        <f>N59 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>45.794097944388326</v>
       </c>
       <c r="Q59">
-        <f>ASIN(Q10)</f>
+        <f t="shared" si="29"/>
         <v>-1.431768683974519</v>
       </c>
       <c r="R59">
-        <f>Q59 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>-82.034302830740089</v>
       </c>
     </row>
     <row r="60" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N60">
-        <f>ASIN(P11)</f>
+        <f t="shared" si="27"/>
         <v>1.030366672133654</v>
       </c>
       <c r="O60">
-        <f>N60 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>59.035661664198216</v>
       </c>
       <c r="Q60">
-        <f>ASIN(Q11)</f>
+        <f t="shared" si="29"/>
         <v>-1.2500523921593354</v>
       </c>
       <c r="R60">
-        <f>Q60 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>-71.622726240962393</v>
       </c>
     </row>
     <row r="61" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N61">
-        <f>ASIN(P12)</f>
+        <f t="shared" si="27"/>
         <v>1.2403675177278848</v>
       </c>
       <c r="O61">
-        <f>N61 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>71.067823810926114</v>
       </c>
       <c r="Q61">
-        <f>ASIN(Q12)</f>
+        <f t="shared" si="29"/>
         <v>-0.8930655352387461</v>
       </c>
       <c r="R61">
-        <f>Q61 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>-51.168885997772051</v>
       </c>
     </row>
     <row r="62" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N62">
-        <f>ASIN(P13)</f>
+        <f t="shared" si="27"/>
         <v>1.3515434415115786</v>
       </c>
       <c r="O62">
-        <f>N62 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>77.437735027199878</v>
       </c>
       <c r="Q62">
-        <f>ASIN(Q13)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R62">
-        <f>Q62 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N63">
-        <f>ASIN(P14)</f>
+        <f t="shared" si="27"/>
         <v>1.2403675177278848</v>
       </c>
       <c r="O63">
-        <f>N63 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>71.067823810926114</v>
       </c>
       <c r="Q63">
-        <f>ASIN(Q14)</f>
+        <f t="shared" si="29"/>
         <v>0.8930655352387461</v>
       </c>
       <c r="R63">
-        <f>Q63 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>51.168885997772051</v>
       </c>
     </row>
     <row r="64" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N64">
-        <f>ASIN(P15)</f>
+        <f t="shared" si="27"/>
         <v>1.030366672133654</v>
       </c>
       <c r="O64">
-        <f>N64 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>59.035661664198216</v>
       </c>
       <c r="Q64">
-        <f>ASIN(Q15)</f>
+        <f t="shared" si="29"/>
         <v>1.2500523921593352</v>
       </c>
       <c r="R64">
-        <f>Q64 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>71.622726240962379</v>
       </c>
     </row>
     <row r="65" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N65">
-        <f>ASIN(P16)</f>
+        <f t="shared" si="27"/>
         <v>0.79925778711034334</v>
       </c>
       <c r="O65">
-        <f>N65 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>45.794097944388326</v>
       </c>
       <c r="Q65">
-        <f>ASIN(Q16)</f>
+        <f t="shared" si="29"/>
         <v>1.431768683974519</v>
       </c>
       <c r="R65">
-        <f>Q65 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>82.034302830740089</v>
       </c>
     </row>
     <row r="66" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N66">
-        <f>ASIN(P17)</f>
+        <f t="shared" si="27"/>
         <v>0.56278241859226208</v>
       </c>
       <c r="O66">
-        <f>N66 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>32.245057369501453</v>
       </c>
       <c r="Q66">
-        <f>ASIN(Q17)</f>
+        <f t="shared" si="29"/>
         <v>1.557612026096808</v>
       </c>
       <c r="R66">
-        <f>Q66 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>89.244595214168129</v>
       </c>
     </row>
     <row r="67" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N67">
-        <f>ASIN(P18)</f>
+        <f t="shared" si="27"/>
         <v>0.32582174999043373</v>
       </c>
       <c r="O67">
-        <f>N67 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>18.668211148018521</v>
       </c>
       <c r="Q67">
-        <f>ASIN(Q18)</f>
+        <f t="shared" si="29"/>
         <v>1.4773674425179559</v>
       </c>
       <c r="R67">
-        <f>Q67 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>84.646919246315122</v>
       </c>
     </row>
     <row r="68" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N68">
-        <f>ASIN(P19)</f>
+        <f t="shared" si="27"/>
         <v>9.114905554975819E-2</v>
       </c>
       <c r="O68">
-        <f>N68 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>5.222456189604638</v>
       </c>
       <c r="Q68">
-        <f>ASIN(Q19)</f>
+        <f t="shared" si="29"/>
         <v>1.3735060288613259</v>
       </c>
       <c r="R68">
-        <f>Q68 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>78.696098589527821</v>
       </c>
     </row>
     <row r="69" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N69">
-        <f>ASIN(P20)</f>
+        <f t="shared" si="27"/>
         <v>-0.13848383165314368</v>
       </c>
       <c r="O69">
-        <f>N69 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>-7.9345390845253307</v>
       </c>
       <c r="Q69">
-        <f>ASIN(Q20)</f>
+        <f t="shared" si="29"/>
         <v>1.2609281821280443</v>
       </c>
       <c r="R69">
-        <f>Q69 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>72.245863105040129</v>
       </c>
     </row>
     <row r="70" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N70">
-        <f>ASIN(P21)</f>
+        <f t="shared" si="27"/>
         <v>-0.35916834452011814</v>
       </c>
       <c r="O70">
-        <f>N70 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>-20.578830275703481</v>
       </c>
       <c r="Q70">
-        <f>ASIN(Q21)</f>
+        <f t="shared" si="29"/>
         <v>1.1275010094006597</v>
       </c>
       <c r="R70">
-        <f>Q70 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>64.601049235397952</v>
       </c>
     </row>
     <row r="71" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N71">
-        <f>ASIN(P22)</f>
+        <f t="shared" si="27"/>
         <v>-0.56426275212117993</v>
       </c>
       <c r="O71">
-        <f>N71 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>-32.329874232980153</v>
       </c>
       <c r="Q71">
-        <f>ASIN(Q22)</f>
+        <f t="shared" si="29"/>
         <v>0.95651805138555424</v>
       </c>
       <c r="R71">
-        <f>Q71 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>54.804447372469859</v>
       </c>
     </row>
     <row r="72" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N72">
-        <f>ASIN(P23)</f>
+        <f t="shared" si="27"/>
         <v>-0.74156381113320025</v>
       </c>
       <c r="O72">
-        <f>N72 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>-42.488476617568864</v>
       </c>
       <c r="Q72">
-        <f>ASIN(Q23)</f>
+        <f t="shared" si="29"/>
         <v>0.72366099561169339</v>
       </c>
       <c r="R72">
-        <f>Q72 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>41.462720846785217</v>
       </c>
     </row>
     <row r="73" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N73">
-        <f>ASIN(P24)</f>
+        <f t="shared" si="27"/>
         <v>-0.86926923252012389</v>
       </c>
       <c r="O73">
-        <f>N73 * 180 / PI()</f>
+        <f t="shared" si="28"/>
         <v>-49.805458283979306</v>
       </c>
       <c r="Q73">
-        <f>ASIN(Q24)</f>
+        <f t="shared" si="29"/>
         <v>0.402390020311854</v>
       </c>
       <c r="R73">
-        <f>Q73 * 180 / PI()</f>
+        <f t="shared" si="30"/>
         <v>23.055249882052706</v>
       </c>
     </row>

--- a/solar/test.xlsx
+++ b/solar/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CA333F-A9C8-4780-B19E-6A308C104C7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4C5E28-36F4-4178-9CF1-5C7852D0B578}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30330" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>//ψ = fi</t>
   </si>
@@ -225,7 +225,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fi</t>
+    <t>fi(台北)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi(緯度40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春(3~4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏(5~6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋(8~9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬(11~12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3921,6 +3941,719 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$AF$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>春(3~4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$AG$32:$AQ$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$AG$33:$AQ$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-90.153599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-80.016999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-68.008700000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-52.2089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-29.799600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.799600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.2089</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.008700000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.016999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.153599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD75-4352-A396-69D767D77E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$AF$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>夏(5~6)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$AG$32:$AQ$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$AG$34:$AQ$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-99.587800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-90.538200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.975800000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-65.5685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-41.615499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.615499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.5685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.975800000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.538200000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.587800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD75-4352-A396-69D767D77E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$AF$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>秋(8~9)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$AG$32:$AQ$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$AG$35:$AQ$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-80.105699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-69.516499999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-57.1464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-41.822099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-22.559899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.559899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.822099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.1464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.516499999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.105699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD75-4352-A396-69D767D77E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$AF$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>冬(11~12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$AG$32:$AQ$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$AG$36:$AQ$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-62.845199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-53.089199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-42.062199999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-29.444099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15.2402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.2402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.444099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.062199999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.089199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.845199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FD75-4352-A396-69D767D77E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2037978224"/>
+        <c:axId val="154891264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2037978224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154891264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154891264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037978224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4121,6 +4854,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6186,6 +6959,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6884,6 +8173,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E78F02-9E1E-4516-90A6-7552419F4A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7732,8 +9057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="AC36" workbookViewId="0">
+      <selection activeCell="AS46" sqref="AS46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9785,7 +11110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>113174267357</v>
       </c>
@@ -9908,7 +11233,7 @@
         <v>30.000000000000014</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -10031,7 +11356,7 @@
         <v>14.999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -10154,7 +11479,7 @@
         <v>3.5936955335356833E-15</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -10277,7 +11602,7 @@
         <v>-15.000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -10400,7 +11725,7 @@
         <v>-29.999999999999979</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -10523,7 +11848,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1.3819999999999999</v>
       </c>
@@ -10643,7 +11968,7 @@
         <v>-60.000000000000021</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>1.3819999999999999</v>
       </c>
@@ -10763,7 +12088,7 @@
         <v>-74.999999999999986</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>53</v>
       </c>
@@ -10801,7 +12126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -10838,8 +12163,44 @@
       <c r="N32" s="2">
         <v>95.353099999999998</v>
       </c>
+      <c r="AF32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG32">
+        <v>7</v>
+      </c>
+      <c r="AH32">
+        <v>8</v>
+      </c>
+      <c r="AI32">
+        <v>9</v>
+      </c>
+      <c r="AJ32">
+        <v>10</v>
+      </c>
+      <c r="AK32">
+        <v>11</v>
+      </c>
+      <c r="AL32">
+        <v>12</v>
+      </c>
+      <c r="AM32">
+        <v>13</v>
+      </c>
+      <c r="AN32">
+        <v>14</v>
+      </c>
+      <c r="AO32">
+        <v>15</v>
+      </c>
+      <c r="AP32">
+        <v>16</v>
+      </c>
+      <c r="AQ32">
+        <v>17</v>
+      </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>50</v>
       </c>
@@ -10876,8 +12237,44 @@
       <c r="N33" s="2">
         <v>106.19199999999999</v>
       </c>
+      <c r="AF33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>-90.153599999999997</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>-80.016999999999996</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>-68.008700000000005</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>-52.2089</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>-29.799600000000002</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>29.799600000000002</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>52.2089</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>68.008700000000005</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>80.016999999999996</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>90.153599999999997</v>
+      </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -10914,8 +12311,44 @@
       <c r="N34" s="2">
         <v>83.392799999999994</v>
       </c>
+      <c r="AF34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>-99.587800000000001</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>-90.538200000000003</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>-79.975800000000007</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>-65.5685</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>-41.615499999999997</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>41.615499999999997</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>65.5685</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>79.975800000000007</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>90.538200000000003</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>99.587800000000001</v>
+      </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>52</v>
       </c>
@@ -10951,6 +12384,80 @@
       </c>
       <c r="N35" s="2">
         <v>62.691699999999997</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>-80.105699999999999</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>-69.516499999999994</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>-57.1464</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>-41.822099999999999</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>-22.559899999999999</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>22.559899999999999</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>41.822099999999999</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>57.1464</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>69.516499999999994</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>80.105699999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AF36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>-62.845199999999998</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>-53.089199999999998</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>-42.062199999999997</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>-29.444099999999999</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>-15.2402</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>15.2402</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>29.444099999999999</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>42.062199999999997</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>53.089199999999998</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>62.845199999999998</v>
       </c>
     </row>
     <row r="50" spans="14:18" x14ac:dyDescent="0.25">

--- a/solar/test.xlsx
+++ b/solar/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4C5E28-36F4-4178-9CF1-5C7852D0B578}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABABD54-1C6B-4531-B2B8-39FF1218FB82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30330" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3096,65 +3096,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>四季中，每日太陽對地球方位角隨時間之變化</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3175,7 +3117,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3184,7 +3126,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3292,7 +3247,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3301,7 +3256,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3409,7 +3377,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -3418,7 +3386,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3526,7 +3507,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -3535,7 +3516,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3636,6 +3628,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1448347855"/>
         <c:axId val="1447561807"/>
@@ -3647,6 +3640,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3654,7 +3661,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3667,11 +3674,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>X:</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:rPr lang="zh-TW"/>
                   <a:t>小時</a:t>
                 </a:r>
               </a:p>
@@ -3690,7 +3693,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3728,7 +3731,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3757,20 +3760,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3778,7 +3767,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3791,11 +3780,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Y:</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:rPr lang="zh-TW"/>
                   <a:t>度</a:t>
                 </a:r>
               </a:p>
@@ -3814,7 +3799,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3836,8 +3821,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3874,7 +3865,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3910,7 +3901,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -6959,7 +6950,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6970,7 +6961,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6993,18 +6984,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -7016,7 +7007,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7024,11 +7015,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -7060,12 +7051,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7075,12 +7066,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7092,13 +7083,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7110,12 +7101,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7125,18 +7116,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7158,15 +7150,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7181,15 +7171,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7200,17 +7190,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7219,10 +7208,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -7238,21 +7227,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7271,17 +7254,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7290,17 +7272,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7309,17 +7290,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7340,7 +7320,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -7348,7 +7328,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -7361,6 +7341,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7368,10 +7359,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -7392,7 +7383,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7401,14 +7392,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7422,7 +7413,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -7438,8 +7429,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7455,6 +7446,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7462,14 +7464,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9057,8 +9053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC36" workbookViewId="0">
-      <selection activeCell="AS46" sqref="AS46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
